--- a/wordlist.xlsx
+++ b/wordlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="944">
   <si>
     <t>word</t>
   </si>
@@ -2644,9 +2644,6 @@
     <t>nonexistence-conception-foundation-function : sleep</t>
   </si>
   <si>
-    <t>literal-translation</t>
-  </si>
-  <si>
     <t>ch</t>
   </si>
   <si>
@@ -2764,16 +2761,91 @@
     <t>support; foundation</t>
   </si>
   <si>
-    <t>none;m-s-voc; (diirgha usage unclear maybe sandhi)</t>
-  </si>
-  <si>
     <t>lamb</t>
   </si>
   <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>experienced;perceived</t>
+  </si>
+  <si>
+    <t>object (of the senses); topic; special sphere or department</t>
+  </si>
+  <si>
+    <t>viSh</t>
+  </si>
+  <si>
+    <t>asampramoSha</t>
+  </si>
+  <si>
+    <t>non-relinquishment; non-destruction; not lost or taken away</t>
+  </si>
+  <si>
+    <t>a;sam;pra</t>
+  </si>
+  <si>
+    <t>muSh</t>
+  </si>
+  <si>
+    <t>experienced-object-nonloss : memory</t>
+  </si>
+  <si>
+    <t>order-preserving-word-substitution</t>
+  </si>
+  <si>
+    <t>abhi</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>repeated practice or exercise</t>
+  </si>
+  <si>
+    <t>aalambana</t>
+  </si>
+  <si>
+    <t>none;m-s-voc; (unclear if diirgha is to indicate plural with other four)</t>
+  </si>
+  <si>
+    <t>vairaagya</t>
+  </si>
+  <si>
+    <t>through ascetism (free from or uncolored by worldly desires) (and practice)</t>
+  </si>
+  <si>
+    <t>n-d-ins;n-d-dat;n-d-abl (dual with abhyaasa)</t>
+  </si>
+  <si>
+    <t>ra~nj</t>
+  </si>
+  <si>
+    <t>that (referring to something not present)</t>
+  </si>
+  <si>
+    <t>noun;pron</t>
+  </si>
+  <si>
+    <t>by-ascetism-and-practice that suppression</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>staying firm;standing</t>
+  </si>
+  <si>
+    <t>sthita</t>
+  </si>
+  <si>
+    <t>yatna</t>
+  </si>
+  <si>
+    <t>perseverance; diligence;effort; activity of volition</t>
+  </si>
+  <si>
+    <t>f-s-loc;m-d-nom;m-d-acc;m-d-voc</t>
+  </si>
+  <si>
+    <t>there to-steadiness effort : practice</t>
   </si>
 </sst>
 </file>
@@ -3597,34 +3669,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1" t="s">
         <v>877</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>878</v>
-      </c>
-      <c r="C1" t="s">
-        <v>879</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3633,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -3651,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>876</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3715,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I3" t="s">
         <v>848</v>
@@ -3750,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I4" t="s">
         <v>849</v>
@@ -3785,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I5" t="s">
         <v>848</v>
@@ -3823,7 +3896,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I6" t="s">
         <v>854</v>
@@ -3858,7 +3931,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I7" t="s">
         <v>855</v>
@@ -3893,7 +3966,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I8" t="s">
         <v>848</v>
@@ -3963,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I10" t="s">
         <v>848</v>
@@ -3998,7 +4071,7 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I11" t="s">
         <v>848</v>
@@ -4033,7 +4106,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I12" t="s">
         <v>857</v>
@@ -4068,7 +4141,7 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I13" t="s">
         <v>849</v>
@@ -4103,7 +4176,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I14" t="s">
         <v>855</v>
@@ -4141,7 +4214,7 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I15" t="s">
         <v>854</v>
@@ -4211,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I17" t="s">
         <v>855</v>
@@ -4249,7 +4322,7 @@
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I18" t="s">
         <v>855</v>
@@ -4284,7 +4357,7 @@
         <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I19" t="s">
         <v>865</v>
@@ -4319,7 +4392,7 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I20" t="s">
         <v>865</v>
@@ -4354,7 +4427,7 @@
         <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I21" t="s">
         <v>854</v>
@@ -4392,7 +4465,7 @@
         <v>844</v>
       </c>
       <c r="H22" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I22" t="s">
         <v>854</v>
@@ -4427,7 +4500,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I23" t="s">
         <v>854</v>
@@ -4462,13 +4535,13 @@
         <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I24" t="s">
         <v>855</v>
       </c>
       <c r="J24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
@@ -4497,7 +4570,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I25" t="s">
         <v>855</v>
@@ -4532,7 +4605,7 @@
         <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I26" t="s">
         <v>854</v>
@@ -4570,7 +4643,7 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I27" t="s">
         <v>854</v>
@@ -4605,7 +4678,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I28" t="s">
         <v>865</v>
@@ -4640,13 +4713,13 @@
         <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I29" t="s">
         <v>849</v>
       </c>
       <c r="J29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K29" t="s">
         <v>91</v>
@@ -4675,7 +4748,7 @@
         <v>844</v>
       </c>
       <c r="H30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I30" t="s">
         <v>854</v>
@@ -4687,7 +4760,7 @@
         <v>68</v>
       </c>
       <c r="L30" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4710,7 +4783,7 @@
         <v>863</v>
       </c>
       <c r="G31" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -4722,7 +4795,7 @@
         <v>861</v>
       </c>
       <c r="K31" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4745,10 +4818,10 @@
         <v>863</v>
       </c>
       <c r="G32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H32" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I32" t="s">
         <v>849</v>
@@ -4757,7 +4830,7 @@
         <v>850</v>
       </c>
       <c r="K32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4771,19 +4844,19 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I33" t="s">
         <v>854</v>
@@ -4792,7 +4865,7 @@
         <v>860</v>
       </c>
       <c r="K33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4809,25 +4882,25 @@
         <v>95</v>
       </c>
       <c r="E34" t="s">
+        <v>891</v>
+      </c>
+      <c r="F34" t="s">
         <v>892</v>
       </c>
-      <c r="F34" t="s">
-        <v>893</v>
-      </c>
       <c r="G34" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H34" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I34" t="s">
         <v>854</v>
       </c>
       <c r="J34" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K34" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4850,10 +4923,10 @@
         <v>863</v>
       </c>
       <c r="G35" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H35" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I35" t="s">
         <v>854</v>
@@ -4862,7 +4935,7 @@
         <v>860</v>
       </c>
       <c r="K35" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L35" t="s">
         <v>874</v>
@@ -4888,19 +4961,19 @@
         <v>863</v>
       </c>
       <c r="G36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I36" t="s">
         <v>849</v>
       </c>
       <c r="J36" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K36" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4917,25 +4990,25 @@
         <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H37" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I37" t="s">
         <v>854</v>
       </c>
       <c r="J37" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K37" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4958,19 +5031,19 @@
         <v>863</v>
       </c>
       <c r="G38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I38" t="s">
         <v>849</v>
       </c>
       <c r="J38" t="s">
+        <v>904</v>
+      </c>
+      <c r="K38" t="s">
         <v>905</v>
-      </c>
-      <c r="K38" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4987,16 +5060,16 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F39" t="s">
         <v>863</v>
       </c>
       <c r="G39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I39" t="s">
         <v>854</v>
@@ -5005,7 +5078,7 @@
         <v>853</v>
       </c>
       <c r="K39" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5031,7 +5104,7 @@
         <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I40" t="s">
         <v>854</v>
@@ -5063,10 +5136,10 @@
         <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I41" t="s">
         <v>848</v>
@@ -5075,7 +5148,7 @@
         <v>859</v>
       </c>
       <c r="K41" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L41" t="s">
         <v>875</v>
@@ -5104,7 +5177,7 @@
         <v>844</v>
       </c>
       <c r="H42" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I42" t="s">
         <v>848</v>
@@ -5113,7 +5186,7 @@
         <v>859</v>
       </c>
       <c r="K42" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -5130,25 +5203,25 @@
         <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>928</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H43" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I43" t="s">
         <v>849</v>
       </c>
       <c r="J43" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="K43" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -5174,13 +5247,13 @@
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I44" t="s">
         <v>855</v>
       </c>
       <c r="J44" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K44" t="s">
         <v>19</v>
@@ -5209,13 +5282,13 @@
         <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I45" t="s">
         <v>855</v>
       </c>
       <c r="J45" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K45" t="s">
         <v>74</v>
@@ -5241,10 +5314,10 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I46" t="s">
         <v>854</v>
@@ -5253,10 +5326,10 @@
         <v>860</v>
       </c>
       <c r="K46" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="L46" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5272,6 +5345,27 @@
       <c r="D47" t="s">
         <v>107</v>
       </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>863</v>
+      </c>
+      <c r="G47" t="s">
+        <v>918</v>
+      </c>
+      <c r="H47" t="s">
+        <v>880</v>
+      </c>
+      <c r="I47" t="s">
+        <v>848</v>
+      </c>
+      <c r="J47" t="s">
+        <v>859</v>
+      </c>
+      <c r="K47" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
@@ -5286,8 +5380,29 @@
       <c r="D48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>919</v>
+      </c>
+      <c r="F48" t="s">
+        <v>921</v>
+      </c>
+      <c r="G48" t="s">
+        <v>922</v>
+      </c>
+      <c r="H48" t="s">
+        <v>880</v>
+      </c>
+      <c r="I48" t="s">
+        <v>848</v>
+      </c>
+      <c r="J48" t="s">
+        <v>853</v>
+      </c>
+      <c r="K48" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5300,8 +5415,29 @@
       <c r="D49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" t="s">
+        <v>863</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>880</v>
+      </c>
+      <c r="I49" t="s">
+        <v>855</v>
+      </c>
+      <c r="J49" t="s">
+        <v>910</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5314,8 +5450,29 @@
       <c r="D50" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" t="s">
+        <v>925</v>
+      </c>
+      <c r="G50" t="s">
+        <v>926</v>
+      </c>
+      <c r="H50" t="s">
+        <v>880</v>
+      </c>
+      <c r="I50" t="s">
+        <v>848</v>
+      </c>
+      <c r="J50" t="s">
+        <v>859</v>
+      </c>
+      <c r="K50" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5328,8 +5485,32 @@
       <c r="D51" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>930</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>933</v>
+      </c>
+      <c r="H51" t="s">
+        <v>880</v>
+      </c>
+      <c r="I51" t="s">
+        <v>849</v>
+      </c>
+      <c r="J51" t="s">
+        <v>932</v>
+      </c>
+      <c r="K51" t="s">
+        <v>931</v>
+      </c>
+      <c r="L51" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5340,10 +5521,31 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52" t="s">
+        <v>863</v>
+      </c>
+      <c r="G52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="s">
+        <v>935</v>
+      </c>
+      <c r="I52" t="s">
+        <v>849</v>
+      </c>
+      <c r="J52" t="s">
+        <v>850</v>
+      </c>
+      <c r="K52" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5356,8 +5558,29 @@
       <c r="D53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s">
+        <v>880</v>
+      </c>
+      <c r="I53" t="s">
+        <v>848</v>
+      </c>
+      <c r="J53" t="s">
+        <v>853</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5370,8 +5593,32 @@
       <c r="D54" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>863</v>
+      </c>
+      <c r="G54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>863</v>
+      </c>
+      <c r="J54" t="s">
+        <v>861</v>
+      </c>
+      <c r="K54" t="s">
+        <v>937</v>
+      </c>
+      <c r="L54" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5384,8 +5631,29 @@
       <c r="D55" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>939</v>
+      </c>
+      <c r="F55" t="s">
+        <v>863</v>
+      </c>
+      <c r="G55" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" t="s">
+        <v>880</v>
+      </c>
+      <c r="I55" t="s">
+        <v>857</v>
+      </c>
+      <c r="J55" t="s">
+        <v>942</v>
+      </c>
+      <c r="K55" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5398,8 +5666,23 @@
       <c r="D56" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>940</v>
+      </c>
+      <c r="H56" t="s">
+        <v>880</v>
+      </c>
+      <c r="I56" t="s">
+        <v>848</v>
+      </c>
+      <c r="J56" t="s">
+        <v>853</v>
+      </c>
+      <c r="K56" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>1</v>
       </c>
@@ -5412,8 +5695,29 @@
       <c r="D57" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
+        <v>925</v>
+      </c>
+      <c r="G57" t="s">
+        <v>926</v>
+      </c>
+      <c r="H57" t="s">
+        <v>880</v>
+      </c>
+      <c r="I57" t="s">
+        <v>848</v>
+      </c>
+      <c r="J57" t="s">
+        <v>853</v>
+      </c>
+      <c r="K57" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5427,7 +5731,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5441,7 +5745,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5455,7 +5759,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5469,7 +5773,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5483,7 +5787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5497,7 +5801,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>1</v>
       </c>
@@ -22383,5 +22687,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wordlist.xlsx
+++ b/wordlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1013">
   <si>
     <t>word</t>
   </si>
@@ -2972,6 +2972,87 @@
   </si>
   <si>
     <t>of-seen-heard-object-desirelessness controlling-consciousness : asceticism</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>sopakrama</t>
+  </si>
+  <si>
+    <t>sam;upa</t>
+  </si>
+  <si>
+    <t>undertaken</t>
+  </si>
+  <si>
+    <t>kram</t>
+  </si>
+  <si>
+    <t>nirupakrama</t>
+  </si>
+  <si>
+    <t>uncommenced</t>
+  </si>
+  <si>
+    <t>niH;upa</t>
+  </si>
+  <si>
+    <t>and;both;also;as well as; moreover</t>
+  </si>
+  <si>
+    <t>karman</t>
+  </si>
+  <si>
+    <t>kru</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>saMyama</t>
+  </si>
+  <si>
+    <t>m-s-abl</t>
+  </si>
+  <si>
+    <t>by concentration, meditation, and absorption</t>
+  </si>
+  <si>
+    <t>yam</t>
+  </si>
+  <si>
+    <t>extreme end; death</t>
+  </si>
+  <si>
+    <t>a;para</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>ariShTa</t>
+  </si>
+  <si>
+    <t>m-p-dat;m-p-abl;n-p-dat;n-p-abl</t>
+  </si>
+  <si>
+    <t>from portents (unlucky omens or forebodings)</t>
+  </si>
+  <si>
+    <t>riSh</t>
+  </si>
+  <si>
+    <t>_;f</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>undertaken uncommenced both karma on-that by-concentration death-knowledge or-also from-portents</t>
   </si>
 </sst>
 </file>
@@ -3793,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1269"/>
+  <dimension ref="A1:L1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K48" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="K791" workbookViewId="0">
+      <selection activeCell="J369" sqref="J369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3807,12 +3888,12 @@
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="69.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="96.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6463,6 +6544,9 @@
       <c r="D75" t="s">
         <v>130</v>
       </c>
+      <c r="L75" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
@@ -16614,7 +16698,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:12">
       <c r="A801">
         <v>3</v>
       </c>
@@ -16627,8 +16711,32 @@
       <c r="D801" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="802" spans="1:4">
+      <c r="E801" t="s">
+        <v>987</v>
+      </c>
+      <c r="F801" t="s">
+        <v>988</v>
+      </c>
+      <c r="G801" t="s">
+        <v>990</v>
+      </c>
+      <c r="H801" t="s">
+        <v>873</v>
+      </c>
+      <c r="I801" t="s">
+        <v>851</v>
+      </c>
+      <c r="J801" t="s">
+        <v>885</v>
+      </c>
+      <c r="K801" t="s">
+        <v>989</v>
+      </c>
+      <c r="L801" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12">
       <c r="A802">
         <v>3</v>
       </c>
@@ -16641,8 +16749,29 @@
       <c r="D802" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="803" spans="1:4">
+      <c r="E802" t="s">
+        <v>991</v>
+      </c>
+      <c r="F802" t="s">
+        <v>993</v>
+      </c>
+      <c r="G802" t="s">
+        <v>990</v>
+      </c>
+      <c r="H802" t="s">
+        <v>873</v>
+      </c>
+      <c r="I802" t="s">
+        <v>851</v>
+      </c>
+      <c r="J802" t="s">
+        <v>885</v>
+      </c>
+      <c r="K802" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12">
       <c r="A803">
         <v>3</v>
       </c>
@@ -16655,8 +16784,29 @@
       <c r="D803" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="804" spans="1:4">
+      <c r="E803" t="s">
+        <v>194</v>
+      </c>
+      <c r="F803" t="s">
+        <v>937</v>
+      </c>
+      <c r="G803" t="s">
+        <v>194</v>
+      </c>
+      <c r="H803" t="s">
+        <v>943</v>
+      </c>
+      <c r="I803" t="s">
+        <v>936</v>
+      </c>
+      <c r="J803" t="s">
+        <v>939</v>
+      </c>
+      <c r="K803" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12">
       <c r="A804">
         <v>3</v>
       </c>
@@ -16669,8 +16819,29 @@
       <c r="D804" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="805" spans="1:4">
+      <c r="E804" t="s">
+        <v>995</v>
+      </c>
+      <c r="F804" t="s">
+        <v>937</v>
+      </c>
+      <c r="G804" t="s">
+        <v>996</v>
+      </c>
+      <c r="H804" t="s">
+        <v>873</v>
+      </c>
+      <c r="I804" t="s">
+        <v>846</v>
+      </c>
+      <c r="J804" t="s">
+        <v>895</v>
+      </c>
+      <c r="K804" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12">
       <c r="A805">
         <v>3</v>
       </c>
@@ -16678,13 +16849,34 @@
         <v>23</v>
       </c>
       <c r="C805">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D805" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="806" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E805" t="s">
+        <v>111</v>
+      </c>
+      <c r="F805" t="s">
+        <v>937</v>
+      </c>
+      <c r="G805" t="s">
+        <v>111</v>
+      </c>
+      <c r="H805" t="s">
+        <v>874</v>
+      </c>
+      <c r="I805" t="s">
+        <v>846</v>
+      </c>
+      <c r="J805" t="s">
+        <v>847</v>
+      </c>
+      <c r="K805" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12">
       <c r="A806">
         <v>3</v>
       </c>
@@ -16695,10 +16887,31 @@
         <v>6</v>
       </c>
       <c r="D806" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="807" spans="1:4">
+        <v>572</v>
+      </c>
+      <c r="E806" t="s">
+        <v>999</v>
+      </c>
+      <c r="F806" t="s">
+        <v>43</v>
+      </c>
+      <c r="G806" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H806" t="s">
+        <v>873</v>
+      </c>
+      <c r="I806" t="s">
+        <v>851</v>
+      </c>
+      <c r="J806" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K806" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12">
       <c r="A807">
         <v>3</v>
       </c>
@@ -16709,10 +16922,31 @@
         <v>7</v>
       </c>
       <c r="D807" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="808" spans="1:4">
+        <v>598</v>
+      </c>
+      <c r="E807" t="s">
+        <v>598</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G807" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H807" t="s">
+        <v>873</v>
+      </c>
+      <c r="I807" t="s">
+        <v>851</v>
+      </c>
+      <c r="J807" t="s">
+        <v>939</v>
+      </c>
+      <c r="K807" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12">
       <c r="A808">
         <v>3</v>
       </c>
@@ -16723,10 +16957,31 @@
         <v>8</v>
       </c>
       <c r="D808" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="809" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="E808" t="s">
+        <v>96</v>
+      </c>
+      <c r="F808" t="s">
+        <v>937</v>
+      </c>
+      <c r="G808" t="s">
+        <v>879</v>
+      </c>
+      <c r="H808" t="s">
+        <v>873</v>
+      </c>
+      <c r="I808" t="s">
+        <v>846</v>
+      </c>
+      <c r="J808" t="s">
+        <v>847</v>
+      </c>
+      <c r="K808" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12">
       <c r="A809">
         <v>3</v>
       </c>
@@ -16737,10 +16992,31 @@
         <v>9</v>
       </c>
       <c r="D809" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="810" spans="1:4">
+        <v>599</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F809" t="s">
+        <v>59</v>
+      </c>
+      <c r="G809" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H809" t="s">
+        <v>873</v>
+      </c>
+      <c r="I809" t="s">
+        <v>851</v>
+      </c>
+      <c r="J809" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K809" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12">
       <c r="A810">
         <v>3</v>
       </c>
@@ -16751,24 +17027,45 @@
         <v>10</v>
       </c>
       <c r="D810" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="811" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="E810" t="s">
+        <v>169</v>
+      </c>
+      <c r="F810" t="s">
+        <v>937</v>
+      </c>
+      <c r="G810" t="s">
+        <v>169</v>
+      </c>
+      <c r="H810" t="s">
+        <v>943</v>
+      </c>
+      <c r="I810" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J810" t="s">
+        <v>940</v>
+      </c>
+      <c r="K810" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12">
       <c r="A811">
         <v>3</v>
       </c>
       <c r="B811">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C811">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D811" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="812" spans="1:4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12">
       <c r="A812">
         <v>3</v>
       </c>
@@ -16776,13 +17073,13 @@
         <v>24</v>
       </c>
       <c r="C812">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D812" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="813" spans="1:4">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12">
       <c r="A813">
         <v>3</v>
       </c>
@@ -16790,27 +17087,27 @@
         <v>24</v>
       </c>
       <c r="C813">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D813" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="814" spans="1:4">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12">
       <c r="A814">
         <v>3</v>
       </c>
       <c r="B814">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C814">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D814" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="815" spans="1:4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12">
       <c r="A815">
         <v>3</v>
       </c>
@@ -16818,13 +17115,13 @@
         <v>25</v>
       </c>
       <c r="C815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D815" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="816" spans="1:4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12">
       <c r="A816">
         <v>3</v>
       </c>
@@ -16832,10 +17129,10 @@
         <v>25</v>
       </c>
       <c r="C816">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D816" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -16846,10 +17143,10 @@
         <v>25</v>
       </c>
       <c r="C817">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D817" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -16857,13 +17154,13 @@
         <v>3</v>
       </c>
       <c r="B818">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C818">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D818" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -16874,10 +17171,10 @@
         <v>26</v>
       </c>
       <c r="C819">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D819" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -16888,10 +17185,10 @@
         <v>26</v>
       </c>
       <c r="C820">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D820" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -16902,10 +17199,10 @@
         <v>26</v>
       </c>
       <c r="C821">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D821" t="s">
-        <v>609</v>
+        <v>280</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -16916,10 +17213,10 @@
         <v>26</v>
       </c>
       <c r="C822">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D822" t="s">
-        <v>280</v>
+        <v>610</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -16930,10 +17227,10 @@
         <v>26</v>
       </c>
       <c r="C823">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D823" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -16944,10 +17241,10 @@
         <v>26</v>
       </c>
       <c r="C824">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D824" t="s">
-        <v>611</v>
+        <v>93</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -16955,13 +17252,13 @@
         <v>3</v>
       </c>
       <c r="B825">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C825">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D825" t="s">
-        <v>93</v>
+        <v>612</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -16972,10 +17269,10 @@
         <v>27</v>
       </c>
       <c r="C826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D826" t="s">
-        <v>612</v>
+        <v>93</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -16986,10 +17283,10 @@
         <v>27</v>
       </c>
       <c r="C827">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D827" t="s">
-        <v>93</v>
+        <v>613</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -17000,10 +17297,10 @@
         <v>27</v>
       </c>
       <c r="C828">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D828" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -17011,13 +17308,13 @@
         <v>3</v>
       </c>
       <c r="B829">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C829">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D829" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -17031,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="D830" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -17042,10 +17339,10 @@
         <v>28</v>
       </c>
       <c r="C831">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D831" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -17056,10 +17353,10 @@
         <v>28</v>
       </c>
       <c r="C832">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D832" t="s">
-        <v>616</v>
+        <v>93</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -17067,13 +17364,13 @@
         <v>3</v>
       </c>
       <c r="B833">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C833">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D833" t="s">
-        <v>93</v>
+        <v>617</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -17084,10 +17381,10 @@
         <v>29</v>
       </c>
       <c r="C834">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D834" t="s">
-        <v>617</v>
+        <v>111</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -17098,10 +17395,10 @@
         <v>29</v>
       </c>
       <c r="C835">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D835" t="s">
-        <v>111</v>
+        <v>500</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -17112,10 +17409,10 @@
         <v>29</v>
       </c>
       <c r="C836">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D836" t="s">
-        <v>500</v>
+        <v>93</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -17123,13 +17420,13 @@
         <v>3</v>
       </c>
       <c r="B837">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C837">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D837" t="s">
-        <v>93</v>
+        <v>618</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -17140,10 +17437,10 @@
         <v>30</v>
       </c>
       <c r="C838">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D838" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -17157,7 +17454,7 @@
         <v>2</v>
       </c>
       <c r="D839" t="s">
-        <v>619</v>
+        <v>482</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -17168,10 +17465,10 @@
         <v>30</v>
       </c>
       <c r="C840">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D840" t="s">
-        <v>482</v>
+        <v>616</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -17182,10 +17479,10 @@
         <v>30</v>
       </c>
       <c r="C841">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D841" t="s">
-        <v>616</v>
+        <v>93</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -17193,13 +17490,13 @@
         <v>3</v>
       </c>
       <c r="B842">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C842">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D842" t="s">
-        <v>93</v>
+        <v>620</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -17210,10 +17507,10 @@
         <v>31</v>
       </c>
       <c r="C843">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D843" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -17224,10 +17521,10 @@
         <v>31</v>
       </c>
       <c r="C844">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D844" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -17238,10 +17535,10 @@
         <v>31</v>
       </c>
       <c r="C845">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D845" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -17252,10 +17549,10 @@
         <v>31</v>
       </c>
       <c r="C846">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D846" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -17263,13 +17560,13 @@
         <v>3</v>
       </c>
       <c r="B847">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C847">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D847" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -17280,10 +17577,10 @@
         <v>32</v>
       </c>
       <c r="C848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D848" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -17294,10 +17591,10 @@
         <v>32</v>
       </c>
       <c r="C849">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D849" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -17305,13 +17602,13 @@
         <v>3</v>
       </c>
       <c r="B850">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C850">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D850" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -17322,10 +17619,10 @@
         <v>33</v>
       </c>
       <c r="C851">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D851" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -17336,10 +17633,10 @@
         <v>33</v>
       </c>
       <c r="C852">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D852" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -17350,10 +17647,10 @@
         <v>33</v>
       </c>
       <c r="C853">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D853" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -17361,13 +17658,13 @@
         <v>3</v>
       </c>
       <c r="B854">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C854">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D854" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -17378,10 +17675,10 @@
         <v>34</v>
       </c>
       <c r="C855">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D855" t="s">
-        <v>632</v>
+        <v>169</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -17392,10 +17689,10 @@
         <v>34</v>
       </c>
       <c r="C856">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D856" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -17403,13 +17700,13 @@
         <v>3</v>
       </c>
       <c r="B857">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C857">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D857" t="s">
-        <v>367</v>
+        <v>633</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -17420,10 +17717,10 @@
         <v>35</v>
       </c>
       <c r="C858">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D858" t="s">
-        <v>633</v>
+        <v>14</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -17434,10 +17731,10 @@
         <v>35</v>
       </c>
       <c r="C859">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D859" t="s">
-        <v>14</v>
+        <v>634</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -17445,13 +17742,13 @@
         <v>3</v>
       </c>
       <c r="B860">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C860">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D860" t="s">
-        <v>634</v>
+        <v>474</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -17462,10 +17759,10 @@
         <v>36</v>
       </c>
       <c r="C861">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D861" t="s">
-        <v>474</v>
+        <v>635</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -17476,10 +17773,10 @@
         <v>36</v>
       </c>
       <c r="C862">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D862" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17490,10 +17787,10 @@
         <v>36</v>
       </c>
       <c r="C863">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D863" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -17504,10 +17801,10 @@
         <v>36</v>
       </c>
       <c r="C864">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D864" t="s">
-        <v>637</v>
+        <v>102</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -17518,10 +17815,10 @@
         <v>36</v>
       </c>
       <c r="C865">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D865" t="s">
-        <v>102</v>
+        <v>638</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -17532,10 +17829,10 @@
         <v>36</v>
       </c>
       <c r="C866">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D866" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -17546,10 +17843,10 @@
         <v>36</v>
       </c>
       <c r="C867">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D867" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -17560,10 +17857,10 @@
         <v>36</v>
       </c>
       <c r="C868">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D868" t="s">
-        <v>640</v>
+        <v>30</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -17574,10 +17871,10 @@
         <v>36</v>
       </c>
       <c r="C869">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D869" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -17588,10 +17885,10 @@
         <v>36</v>
       </c>
       <c r="C870">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D870" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -17602,10 +17899,10 @@
         <v>36</v>
       </c>
       <c r="C871">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D871" t="s">
-        <v>572</v>
+        <v>132</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -17616,10 +17913,10 @@
         <v>36</v>
       </c>
       <c r="C872">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D872" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -17627,13 +17924,13 @@
         <v>3</v>
       </c>
       <c r="B873">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C873">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D873" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -17644,10 +17941,10 @@
         <v>37</v>
       </c>
       <c r="C874">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D874" t="s">
-        <v>164</v>
+        <v>641</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -17658,10 +17955,10 @@
         <v>37</v>
       </c>
       <c r="C875">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D875" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -17672,10 +17969,10 @@
         <v>37</v>
       </c>
       <c r="C876">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D876" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -17686,10 +17983,10 @@
         <v>37</v>
       </c>
       <c r="C877">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D877" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -17700,10 +17997,10 @@
         <v>37</v>
       </c>
       <c r="C878">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D878" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -17714,10 +18011,10 @@
         <v>37</v>
       </c>
       <c r="C879">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D879" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -17728,10 +18025,10 @@
         <v>37</v>
       </c>
       <c r="C880">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D880" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -17739,13 +18036,13 @@
         <v>3</v>
       </c>
       <c r="B881">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C881">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D881" t="s">
-        <v>647</v>
+        <v>207</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -17756,10 +18053,10 @@
         <v>38</v>
       </c>
       <c r="C882">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D882" t="s">
-        <v>207</v>
+        <v>648</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -17770,10 +18067,10 @@
         <v>38</v>
       </c>
       <c r="C883">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D883" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -17784,10 +18081,10 @@
         <v>38</v>
       </c>
       <c r="C884">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D884" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -17798,10 +18095,10 @@
         <v>38</v>
       </c>
       <c r="C885">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D885" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -17809,13 +18106,13 @@
         <v>3</v>
       </c>
       <c r="B886">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C886">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D886" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -17826,10 +18123,10 @@
         <v>39</v>
       </c>
       <c r="C887">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D887" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -17840,10 +18137,10 @@
         <v>39</v>
       </c>
       <c r="C888">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D888" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -17854,10 +18151,10 @@
         <v>39</v>
       </c>
       <c r="C889">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D889" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -17868,10 +18165,10 @@
         <v>39</v>
       </c>
       <c r="C890">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D890" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -17882,10 +18179,10 @@
         <v>39</v>
       </c>
       <c r="C891">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D891" t="s">
-        <v>656</v>
+        <v>194</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -17896,10 +18193,10 @@
         <v>39</v>
       </c>
       <c r="C892">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D892" t="s">
-        <v>194</v>
+        <v>516</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -17910,10 +18207,10 @@
         <v>39</v>
       </c>
       <c r="C893">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D893" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -17924,10 +18221,10 @@
         <v>39</v>
       </c>
       <c r="C894">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D894" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -17938,10 +18235,10 @@
         <v>39</v>
       </c>
       <c r="C895">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D895" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -17949,13 +18246,13 @@
         <v>3</v>
       </c>
       <c r="B896">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C896">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D896" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -17966,10 +18263,10 @@
         <v>40</v>
       </c>
       <c r="C897">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D897" t="s">
-        <v>659</v>
+        <v>530</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -17980,10 +18277,10 @@
         <v>40</v>
       </c>
       <c r="C898">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D898" t="s">
-        <v>530</v>
+        <v>660</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -17994,10 +18291,10 @@
         <v>40</v>
       </c>
       <c r="C899">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D899" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -18008,10 +18305,10 @@
         <v>40</v>
       </c>
       <c r="C900">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D900" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -18022,10 +18319,10 @@
         <v>40</v>
       </c>
       <c r="C901">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D901" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -18036,10 +18333,10 @@
         <v>40</v>
       </c>
       <c r="C902">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D902" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -18050,10 +18347,10 @@
         <v>40</v>
       </c>
       <c r="C903">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D903" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -18064,10 +18361,10 @@
         <v>40</v>
       </c>
       <c r="C904">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D904" t="s">
-        <v>664</v>
+        <v>194</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -18075,13 +18372,13 @@
         <v>3</v>
       </c>
       <c r="B905">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C905">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D905" t="s">
-        <v>194</v>
+        <v>665</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -18092,10 +18389,10 @@
         <v>41</v>
       </c>
       <c r="C906">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D906" t="s">
-        <v>665</v>
+        <v>530</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -18106,10 +18403,10 @@
         <v>41</v>
       </c>
       <c r="C907">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D907" t="s">
-        <v>530</v>
+        <v>666</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -18117,13 +18414,13 @@
         <v>3</v>
       </c>
       <c r="B908">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C908">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D908" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -18134,10 +18431,10 @@
         <v>42</v>
       </c>
       <c r="C909">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D909" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -18148,10 +18445,10 @@
         <v>42</v>
       </c>
       <c r="C910">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D910" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -18162,10 +18459,10 @@
         <v>42</v>
       </c>
       <c r="C911">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D911" t="s">
-        <v>669</v>
+        <v>572</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -18176,10 +18473,10 @@
         <v>42</v>
       </c>
       <c r="C912">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D912" t="s">
-        <v>572</v>
+        <v>670</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -18190,10 +18487,10 @@
         <v>42</v>
       </c>
       <c r="C913">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D913" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -18201,13 +18498,13 @@
         <v>3</v>
       </c>
       <c r="B914">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C914">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D914" t="s">
-        <v>671</v>
+        <v>482</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -18218,10 +18515,10 @@
         <v>43</v>
       </c>
       <c r="C915">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D915" t="s">
-        <v>482</v>
+        <v>668</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -18232,10 +18529,10 @@
         <v>43</v>
       </c>
       <c r="C916">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D916" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -18246,10 +18543,10 @@
         <v>43</v>
       </c>
       <c r="C917">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D917" t="s">
-        <v>669</v>
+        <v>572</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -18260,10 +18557,10 @@
         <v>43</v>
       </c>
       <c r="C918">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D918" t="s">
-        <v>572</v>
+        <v>672</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -18274,10 +18571,10 @@
         <v>43</v>
       </c>
       <c r="C919">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D919" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -18288,10 +18585,10 @@
         <v>43</v>
       </c>
       <c r="C920">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D920" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -18302,10 +18599,10 @@
         <v>43</v>
       </c>
       <c r="C921">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D921" t="s">
-        <v>674</v>
+        <v>194</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -18316,10 +18613,10 @@
         <v>43</v>
       </c>
       <c r="C922">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D922" t="s">
-        <v>194</v>
+        <v>675</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -18330,10 +18627,10 @@
         <v>43</v>
       </c>
       <c r="C923">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D923" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -18341,13 +18638,13 @@
         <v>3</v>
       </c>
       <c r="B924">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C924">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D924" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -18358,10 +18655,10 @@
         <v>44</v>
       </c>
       <c r="C925">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D925" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="926" spans="1:4">
@@ -18372,10 +18669,10 @@
         <v>44</v>
       </c>
       <c r="C926">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D926" t="s">
-        <v>678</v>
+        <v>104</v>
       </c>
     </row>
     <row r="927" spans="1:4">
@@ -18386,10 +18683,10 @@
         <v>44</v>
       </c>
       <c r="C927">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D927" t="s">
-        <v>104</v>
+        <v>437</v>
       </c>
     </row>
     <row r="928" spans="1:4">
@@ -18400,10 +18697,10 @@
         <v>44</v>
       </c>
       <c r="C928">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D928" t="s">
-        <v>437</v>
+        <v>679</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -18414,10 +18711,10 @@
         <v>44</v>
       </c>
       <c r="C929">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D929" t="s">
-        <v>679</v>
+        <v>164</v>
       </c>
     </row>
     <row r="930" spans="1:4">
@@ -18428,10 +18725,10 @@
         <v>44</v>
       </c>
       <c r="C930">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D930" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -18442,10 +18739,10 @@
         <v>44</v>
       </c>
       <c r="C931">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D931" t="s">
-        <v>375</v>
+        <v>680</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -18456,10 +18753,10 @@
         <v>44</v>
       </c>
       <c r="C932">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D932" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -18467,13 +18764,13 @@
         <v>3</v>
       </c>
       <c r="B933">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C933">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D933" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -18484,10 +18781,10 @@
         <v>45</v>
       </c>
       <c r="C934">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D934" t="s">
-        <v>682</v>
+        <v>30</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -18498,10 +18795,10 @@
         <v>45</v>
       </c>
       <c r="C935">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D935" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="936" spans="1:4">
@@ -18512,10 +18809,10 @@
         <v>45</v>
       </c>
       <c r="C936">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D936" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -18526,10 +18823,10 @@
         <v>45</v>
       </c>
       <c r="C937">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D937" t="s">
-        <v>280</v>
+        <v>683</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -18540,10 +18837,10 @@
         <v>45</v>
       </c>
       <c r="C938">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D938" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -18554,10 +18851,10 @@
         <v>45</v>
       </c>
       <c r="C939">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D939" t="s">
-        <v>684</v>
+        <v>572</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -18568,10 +18865,10 @@
         <v>45</v>
       </c>
       <c r="C940">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D940" t="s">
-        <v>572</v>
+        <v>377</v>
       </c>
     </row>
     <row r="941" spans="1:4">
@@ -18582,10 +18879,10 @@
         <v>45</v>
       </c>
       <c r="C941">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D941" t="s">
-        <v>377</v>
+        <v>685</v>
       </c>
     </row>
     <row r="942" spans="1:4">
@@ -18593,13 +18890,13 @@
         <v>3</v>
       </c>
       <c r="B942">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C942">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D942" t="s">
-        <v>685</v>
+        <v>164</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -18610,10 +18907,10 @@
         <v>46</v>
       </c>
       <c r="C943">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D943" t="s">
-        <v>164</v>
+        <v>686</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -18624,10 +18921,10 @@
         <v>46</v>
       </c>
       <c r="C944">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D944" t="s">
-        <v>686</v>
+        <v>594</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -18638,10 +18935,10 @@
         <v>46</v>
       </c>
       <c r="C945">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D945" t="s">
-        <v>594</v>
+        <v>687</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -18652,10 +18949,10 @@
         <v>46</v>
       </c>
       <c r="C946">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D946" t="s">
-        <v>687</v>
+        <v>482</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -18666,10 +18963,10 @@
         <v>46</v>
       </c>
       <c r="C947">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D947" t="s">
-        <v>482</v>
+        <v>688</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -18680,10 +18977,10 @@
         <v>46</v>
       </c>
       <c r="C948">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D948" t="s">
-        <v>688</v>
+        <v>111</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -18694,10 +18991,10 @@
         <v>46</v>
       </c>
       <c r="C949">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D949" t="s">
-        <v>111</v>
+        <v>560</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -18708,10 +19005,10 @@
         <v>46</v>
       </c>
       <c r="C950">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D950" t="s">
-        <v>560</v>
+        <v>497</v>
       </c>
     </row>
     <row r="951" spans="1:4">
@@ -18722,10 +19019,10 @@
         <v>46</v>
       </c>
       <c r="C951">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D951" t="s">
-        <v>497</v>
+        <v>194</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -18733,13 +19030,13 @@
         <v>3</v>
       </c>
       <c r="B952">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C952">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D952" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
     </row>
     <row r="953" spans="1:4">
@@ -18750,10 +19047,10 @@
         <v>47</v>
       </c>
       <c r="C953">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D953" t="s">
-        <v>33</v>
+        <v>689</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -18764,10 +19061,10 @@
         <v>47</v>
       </c>
       <c r="C954">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D954" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -18778,10 +19075,10 @@
         <v>47</v>
       </c>
       <c r="C955">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D955" t="s">
-        <v>605</v>
+        <v>690</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -18792,10 +19089,10 @@
         <v>47</v>
       </c>
       <c r="C956">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D956" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -18806,10 +19103,10 @@
         <v>47</v>
       </c>
       <c r="C957">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D957" t="s">
-        <v>691</v>
+        <v>482</v>
       </c>
     </row>
     <row r="958" spans="1:4">
@@ -18820,10 +19117,10 @@
         <v>47</v>
       </c>
       <c r="C958">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D958" t="s">
-        <v>482</v>
+        <v>692</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -18831,13 +19128,13 @@
         <v>3</v>
       </c>
       <c r="B959">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C959">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D959" t="s">
-        <v>692</v>
+        <v>263</v>
       </c>
     </row>
     <row r="960" spans="1:4">
@@ -18848,10 +19145,10 @@
         <v>48</v>
       </c>
       <c r="C960">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D960" t="s">
-        <v>263</v>
+        <v>30</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -18862,10 +19159,10 @@
         <v>48</v>
       </c>
       <c r="C961">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D961" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="962" spans="1:4">
@@ -18876,10 +19173,10 @@
         <v>48</v>
       </c>
       <c r="C962">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D962" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -18890,10 +19187,10 @@
         <v>48</v>
       </c>
       <c r="C963">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D963" t="s">
-        <v>139</v>
+        <v>683</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -18904,10 +19201,10 @@
         <v>48</v>
       </c>
       <c r="C964">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D964" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -18918,10 +19215,10 @@
         <v>48</v>
       </c>
       <c r="C965">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D965" t="s">
-        <v>684</v>
+        <v>572</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -18932,10 +19229,10 @@
         <v>48</v>
       </c>
       <c r="C966">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D966" t="s">
-        <v>572</v>
+        <v>378</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -18946,10 +19243,10 @@
         <v>48</v>
       </c>
       <c r="C967">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D967" t="s">
-        <v>378</v>
+        <v>685</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -18957,13 +19254,13 @@
         <v>3</v>
       </c>
       <c r="B968">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C968">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D968" t="s">
-        <v>685</v>
+        <v>164</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -18974,10 +19271,10 @@
         <v>49</v>
       </c>
       <c r="C969">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D969" t="s">
-        <v>164</v>
+        <v>693</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -18988,10 +19285,10 @@
         <v>49</v>
       </c>
       <c r="C970">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D970" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -19002,10 +19299,10 @@
         <v>49</v>
       </c>
       <c r="C971">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D971" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -19016,10 +19313,10 @@
         <v>49</v>
       </c>
       <c r="C972">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D972" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -19030,10 +19327,10 @@
         <v>49</v>
       </c>
       <c r="C973">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D973" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -19044,10 +19341,10 @@
         <v>49</v>
       </c>
       <c r="C974">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D974" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -19058,10 +19355,10 @@
         <v>49</v>
       </c>
       <c r="C975">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D975" t="s">
-        <v>685</v>
+        <v>194</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -19069,13 +19366,13 @@
         <v>3</v>
       </c>
       <c r="B976">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C976">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D976" t="s">
-        <v>194</v>
+        <v>474</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -19086,10 +19383,10 @@
         <v>50</v>
       </c>
       <c r="C977">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D977" t="s">
-        <v>474</v>
+        <v>132</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -19100,10 +19397,10 @@
         <v>50</v>
       </c>
       <c r="C978">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D978" t="s">
-        <v>132</v>
+        <v>698</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -19114,10 +19411,10 @@
         <v>50</v>
       </c>
       <c r="C979">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D979" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -19128,10 +19425,10 @@
         <v>50</v>
       </c>
       <c r="C980">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D980" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -19142,10 +19439,10 @@
         <v>50</v>
       </c>
       <c r="C981">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D981" t="s">
-        <v>700</v>
+        <v>303</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -19156,10 +19453,10 @@
         <v>50</v>
       </c>
       <c r="C982">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D982" t="s">
-        <v>303</v>
+        <v>701</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -19170,10 +19467,10 @@
         <v>50</v>
       </c>
       <c r="C983">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D983" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -19184,10 +19481,10 @@
         <v>50</v>
       </c>
       <c r="C984">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D984" t="s">
-        <v>702</v>
+        <v>303</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -19198,10 +19495,10 @@
         <v>50</v>
       </c>
       <c r="C985">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D985" t="s">
-        <v>303</v>
+        <v>703</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -19212,10 +19509,10 @@
         <v>50</v>
       </c>
       <c r="C986">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D986" t="s">
-        <v>703</v>
+        <v>194</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -19223,13 +19520,13 @@
         <v>3</v>
       </c>
       <c r="B987">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C987">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D987" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -19240,10 +19537,10 @@
         <v>51</v>
       </c>
       <c r="C988">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D988" t="s">
-        <v>111</v>
+        <v>704</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -19254,10 +19551,10 @@
         <v>51</v>
       </c>
       <c r="C989">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D989" t="s">
-        <v>704</v>
+        <v>165</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -19268,10 +19565,10 @@
         <v>51</v>
       </c>
       <c r="C990">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D990" t="s">
-        <v>165</v>
+        <v>705</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -19282,10 +19579,10 @@
         <v>51</v>
       </c>
       <c r="C991">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D991" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -19296,10 +19593,10 @@
         <v>51</v>
       </c>
       <c r="C992">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D992" t="s">
-        <v>706</v>
+        <v>415</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -19310,10 +19607,10 @@
         <v>51</v>
       </c>
       <c r="C993">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D993" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -19321,13 +19618,13 @@
         <v>3</v>
       </c>
       <c r="B994">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C994">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D994" t="s">
-        <v>405</v>
+        <v>707</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -19338,10 +19635,10 @@
         <v>52</v>
       </c>
       <c r="C995">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D995" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -19352,10 +19649,10 @@
         <v>52</v>
       </c>
       <c r="C996">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D996" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -19366,10 +19663,10 @@
         <v>52</v>
       </c>
       <c r="C997">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D997" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -19380,10 +19677,10 @@
         <v>52</v>
       </c>
       <c r="C998">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D998" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -19394,10 +19691,10 @@
         <v>52</v>
       </c>
       <c r="C999">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D999" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -19408,10 +19705,10 @@
         <v>52</v>
       </c>
       <c r="C1000">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1000" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -19422,10 +19719,10 @@
         <v>52</v>
       </c>
       <c r="C1001">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1001" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -19433,13 +19730,13 @@
         <v>3</v>
       </c>
       <c r="B1002">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1002">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1002" t="s">
-        <v>714</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1003" spans="1:4">
@@ -19450,10 +19747,10 @@
         <v>53</v>
       </c>
       <c r="C1003">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1003" t="s">
-        <v>542</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -19464,10 +19761,10 @@
         <v>53</v>
       </c>
       <c r="C1004">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1004" t="s">
-        <v>111</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -19478,10 +19775,10 @@
         <v>53</v>
       </c>
       <c r="C1005">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1005" t="s">
-        <v>715</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -19492,10 +19789,10 @@
         <v>53</v>
       </c>
       <c r="C1006">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1006" t="s">
-        <v>572</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -19506,10 +19803,10 @@
         <v>53</v>
       </c>
       <c r="C1007">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1007" t="s">
-        <v>406</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -19520,10 +19817,10 @@
         <v>53</v>
       </c>
       <c r="C1008">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1008" t="s">
-        <v>716</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1009" spans="1:4">
@@ -19531,13 +19828,13 @@
         <v>3</v>
       </c>
       <c r="B1009">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1009">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1009" t="s">
-        <v>93</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
@@ -19548,10 +19845,10 @@
         <v>54</v>
       </c>
       <c r="C1010">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1010" t="s">
-        <v>355</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
@@ -19562,10 +19859,10 @@
         <v>54</v>
       </c>
       <c r="C1011">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1011" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
@@ -19576,10 +19873,10 @@
         <v>54</v>
       </c>
       <c r="C1012">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1012" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
@@ -19590,10 +19887,10 @@
         <v>54</v>
       </c>
       <c r="C1013">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1013" t="s">
-        <v>698</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
@@ -19604,10 +19901,10 @@
         <v>54</v>
       </c>
       <c r="C1014">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1014" t="s">
-        <v>182</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19618,10 +19915,10 @@
         <v>54</v>
       </c>
       <c r="C1015">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1015" t="s">
-        <v>719</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -19632,10 +19929,10 @@
         <v>54</v>
       </c>
       <c r="C1016">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1016" t="s">
-        <v>164</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19643,13 +19940,13 @@
         <v>3</v>
       </c>
       <c r="B1017">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1017">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1017" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
@@ -19660,10 +19957,10 @@
         <v>55</v>
       </c>
       <c r="C1018">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1018" t="s">
-        <v>721</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1019" spans="1:4">
@@ -19674,10 +19971,10 @@
         <v>55</v>
       </c>
       <c r="C1019">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1019" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
@@ -19688,10 +19985,10 @@
         <v>55</v>
       </c>
       <c r="C1020">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1020" t="s">
-        <v>244</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -19702,10 +19999,10 @@
         <v>55</v>
       </c>
       <c r="C1021">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1021" t="s">
-        <v>722</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
@@ -19716,10 +20013,10 @@
         <v>55</v>
       </c>
       <c r="C1022">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1022" t="s">
-        <v>244</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -19730,10 +20027,10 @@
         <v>55</v>
       </c>
       <c r="C1023">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1023" t="s">
-        <v>723</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -19744,10 +20041,10 @@
         <v>55</v>
       </c>
       <c r="C1024">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1024" t="s">
-        <v>194</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -19758,10 +20055,10 @@
         <v>55</v>
       </c>
       <c r="C1025">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1025" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -19772,10 +20069,10 @@
         <v>55</v>
       </c>
       <c r="C1026">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1026" t="s">
-        <v>406</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -19786,10 +20083,10 @@
         <v>55</v>
       </c>
       <c r="C1027">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1027" t="s">
-        <v>716</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -19797,13 +20094,13 @@
         <v>3</v>
       </c>
       <c r="B1028">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1028">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1028" t="s">
-        <v>93</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1029" spans="1:4">
@@ -19814,10 +20111,10 @@
         <v>56</v>
       </c>
       <c r="C1029">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1029" t="s">
-        <v>474</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -19828,10 +20125,10 @@
         <v>56</v>
       </c>
       <c r="C1030">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1030" t="s">
-        <v>635</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1031" spans="1:4">
@@ -19842,52 +20139,52 @@
         <v>56</v>
       </c>
       <c r="C1031">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1031" t="s">
-        <v>475</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1032">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C1032">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1032" t="s">
-        <v>724</v>
+        <v>405</v>
       </c>
     </row>
     <row r="1033" spans="1:4">
       <c r="A1033">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1033">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C1033">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1033" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
       <c r="A1034">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1034">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1034">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1034" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
     </row>
     <row r="1035" spans="1:4">
@@ -19898,10 +20195,10 @@
         <v>1</v>
       </c>
       <c r="C1035">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1035" t="s">
-        <v>350</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -19912,10 +20209,10 @@
         <v>1</v>
       </c>
       <c r="C1036">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1036" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -19926,10 +20223,10 @@
         <v>1</v>
       </c>
       <c r="C1037">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1037" t="s">
-        <v>726</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1038" spans="1:4">
@@ -19940,10 +20237,10 @@
         <v>1</v>
       </c>
       <c r="C1038">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1038" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1039" spans="1:4">
@@ -19954,10 +20251,10 @@
         <v>1</v>
       </c>
       <c r="C1039">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1039" t="s">
-        <v>154</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -19968,10 +20265,10 @@
         <v>1</v>
       </c>
       <c r="C1040">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1040" t="s">
-        <v>727</v>
+        <v>651</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -19979,13 +20276,13 @@
         <v>4</v>
       </c>
       <c r="B1041">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1041">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1041" t="s">
-        <v>651</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
@@ -19996,10 +20293,10 @@
         <v>2</v>
       </c>
       <c r="C1042">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1042" t="s">
-        <v>355</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -20010,10 +20307,10 @@
         <v>2</v>
       </c>
       <c r="C1043">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1043" t="s">
-        <v>728</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -20024,10 +20321,10 @@
         <v>2</v>
       </c>
       <c r="C1044">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1044" t="s">
-        <v>544</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -20038,10 +20335,10 @@
         <v>2</v>
       </c>
       <c r="C1045">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1045" t="s">
-        <v>150</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -20049,13 +20346,13 @@
         <v>4</v>
       </c>
       <c r="B1046">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1046">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1046" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -20066,10 +20363,10 @@
         <v>3</v>
       </c>
       <c r="C1047">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1047" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -20080,10 +20377,10 @@
         <v>3</v>
       </c>
       <c r="C1048">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1048" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1049" spans="1:4">
@@ -20094,10 +20391,10 @@
         <v>3</v>
       </c>
       <c r="C1049">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1049" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
@@ -20108,10 +20405,10 @@
         <v>3</v>
       </c>
       <c r="C1050">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1050" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -20122,10 +20419,10 @@
         <v>3</v>
       </c>
       <c r="C1051">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1051" t="s">
-        <v>734</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -20136,10 +20433,10 @@
         <v>3</v>
       </c>
       <c r="C1052">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1052" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1053" spans="1:4">
@@ -20150,10 +20447,10 @@
         <v>3</v>
       </c>
       <c r="C1053">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1053" t="s">
-        <v>164</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1054" spans="1:4">
@@ -20164,10 +20461,10 @@
         <v>3</v>
       </c>
       <c r="C1054">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1054" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
@@ -20175,13 +20472,13 @@
         <v>4</v>
       </c>
       <c r="B1055">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1055">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1055" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
@@ -20192,10 +20489,10 @@
         <v>4</v>
       </c>
       <c r="C1056">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1056" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1057" spans="1:4">
@@ -20206,10 +20503,10 @@
         <v>4</v>
       </c>
       <c r="C1057">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1057" t="s">
-        <v>738</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -20220,10 +20517,10 @@
         <v>4</v>
       </c>
       <c r="C1058">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1058" t="s">
-        <v>139</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -20231,13 +20528,13 @@
         <v>4</v>
       </c>
       <c r="B1059">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1059">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1059" t="s">
-        <v>739</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1060" spans="1:4">
@@ -20248,10 +20545,10 @@
         <v>5</v>
       </c>
       <c r="C1060">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1060" t="s">
-        <v>607</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -20262,10 +20559,10 @@
         <v>5</v>
       </c>
       <c r="C1061">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1061" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
@@ -20276,10 +20573,10 @@
         <v>5</v>
       </c>
       <c r="C1062">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1062" t="s">
-        <v>741</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -20290,10 +20587,10 @@
         <v>5</v>
       </c>
       <c r="C1063">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1063" t="s">
-        <v>245</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
@@ -20304,10 +20601,10 @@
         <v>5</v>
       </c>
       <c r="C1064">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1064" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1065" spans="1:4">
@@ -20315,13 +20612,13 @@
         <v>4</v>
       </c>
       <c r="B1065">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1065">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1065" t="s">
-        <v>743</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -20332,10 +20629,10 @@
         <v>6</v>
       </c>
       <c r="C1066">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1066" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
     </row>
     <row r="1067" spans="1:4">
@@ -20346,10 +20643,10 @@
         <v>6</v>
       </c>
       <c r="C1067">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1067" t="s">
-        <v>346</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -20360,10 +20657,10 @@
         <v>6</v>
       </c>
       <c r="C1068">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1068" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -20371,13 +20668,13 @@
         <v>4</v>
       </c>
       <c r="B1069">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1069">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1069" t="s">
-        <v>744</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -20388,10 +20685,10 @@
         <v>7</v>
       </c>
       <c r="C1070">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1070" t="s">
-        <v>171</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1071" spans="1:4">
@@ -20402,10 +20699,10 @@
         <v>7</v>
       </c>
       <c r="C1071">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1071" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -20416,10 +20713,10 @@
         <v>7</v>
       </c>
       <c r="C1072">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1072" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1073" spans="1:4">
@@ -20430,10 +20727,10 @@
         <v>7</v>
       </c>
       <c r="C1073">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1073" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -20444,10 +20741,10 @@
         <v>7</v>
       </c>
       <c r="C1074">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1074" t="s">
-        <v>748</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -20455,13 +20752,13 @@
         <v>4</v>
       </c>
       <c r="B1075">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1075">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1075" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1076" spans="1:4">
@@ -20472,10 +20769,10 @@
         <v>8</v>
       </c>
       <c r="C1076">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1076" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
@@ -20486,10 +20783,10 @@
         <v>8</v>
       </c>
       <c r="C1077">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1077" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -20500,10 +20797,10 @@
         <v>8</v>
       </c>
       <c r="C1078">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1078" t="s">
-        <v>172</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1079" spans="1:4">
@@ -20514,10 +20811,10 @@
         <v>8</v>
       </c>
       <c r="C1079">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1079" t="s">
-        <v>749</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1080" spans="1:4">
@@ -20528,10 +20825,10 @@
         <v>8</v>
       </c>
       <c r="C1080">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1080" t="s">
-        <v>277</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -20542,10 +20839,10 @@
         <v>8</v>
       </c>
       <c r="C1081">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1081" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
@@ -20553,13 +20850,13 @@
         <v>4</v>
       </c>
       <c r="B1082">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1082">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1082" t="s">
-        <v>751</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1083" spans="1:4">
@@ -20570,10 +20867,10 @@
         <v>9</v>
       </c>
       <c r="C1083">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1083" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1084" spans="1:4">
@@ -20584,10 +20881,10 @@
         <v>9</v>
       </c>
       <c r="C1084">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1084" t="s">
-        <v>432</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1085" spans="1:4">
@@ -20598,10 +20895,10 @@
         <v>9</v>
       </c>
       <c r="C1085">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1085" t="s">
-        <v>118</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1086" spans="1:4">
@@ -20612,10 +20909,10 @@
         <v>9</v>
       </c>
       <c r="C1086">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1086" t="s">
-        <v>752</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1087" spans="1:4">
@@ -20626,10 +20923,10 @@
         <v>9</v>
       </c>
       <c r="C1087">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1087" t="s">
-        <v>165</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -20640,10 +20937,10 @@
         <v>9</v>
       </c>
       <c r="C1088">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1088" t="s">
-        <v>753</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1089" spans="1:4">
@@ -20654,10 +20951,10 @@
         <v>9</v>
       </c>
       <c r="C1089">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1089" t="s">
-        <v>75</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1090" spans="1:4">
@@ -20668,10 +20965,10 @@
         <v>9</v>
       </c>
       <c r="C1090">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1090" t="s">
-        <v>539</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1091" spans="1:4">
@@ -20682,10 +20979,10 @@
         <v>9</v>
       </c>
       <c r="C1091">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1091" t="s">
-        <v>220</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20693,13 +20990,13 @@
         <v>4</v>
       </c>
       <c r="B1092">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1092">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1092" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -20710,10 +21007,10 @@
         <v>10</v>
       </c>
       <c r="C1093">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1093" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -20724,10 +21021,10 @@
         <v>10</v>
       </c>
       <c r="C1094">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1094" t="s">
-        <v>756</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1095" spans="1:4">
@@ -20738,10 +21035,10 @@
         <v>10</v>
       </c>
       <c r="C1095">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1095" t="s">
-        <v>194</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -20752,10 +21049,10 @@
         <v>10</v>
       </c>
       <c r="C1096">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1096" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1097" spans="1:4">
@@ -20763,13 +21060,13 @@
         <v>4</v>
       </c>
       <c r="B1097">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1097">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1097" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -20780,10 +21077,10 @@
         <v>11</v>
       </c>
       <c r="C1098">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1098" t="s">
-        <v>759</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1099" spans="1:4">
@@ -20794,10 +21091,10 @@
         <v>11</v>
       </c>
       <c r="C1099">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1099" t="s">
-        <v>461</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1100" spans="1:4">
@@ -20808,10 +21105,10 @@
         <v>11</v>
       </c>
       <c r="C1100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -20822,10 +21119,10 @@
         <v>11</v>
       </c>
       <c r="C1101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1101" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -20836,10 +21133,10 @@
         <v>11</v>
       </c>
       <c r="C1102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1102" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -20850,10 +21147,10 @@
         <v>11</v>
       </c>
       <c r="C1103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1103" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -20864,10 +21161,10 @@
         <v>11</v>
       </c>
       <c r="C1104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1104" t="s">
-        <v>764</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1105" spans="1:4">
@@ -20878,10 +21175,10 @@
         <v>11</v>
       </c>
       <c r="C1105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1105" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1106" spans="1:4">
@@ -20889,13 +21186,13 @@
         <v>4</v>
       </c>
       <c r="B1106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1106">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1106" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1107" spans="1:4">
@@ -20906,10 +21203,10 @@
         <v>12</v>
       </c>
       <c r="C1107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1107" t="s">
-        <v>573</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1108" spans="1:4">
@@ -20920,10 +21217,10 @@
         <v>12</v>
       </c>
       <c r="C1108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1108" t="s">
-        <v>370</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -20934,10 +21231,10 @@
         <v>12</v>
       </c>
       <c r="C1109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1109" t="s">
-        <v>30</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -20948,10 +21245,10 @@
         <v>12</v>
       </c>
       <c r="C1110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1110" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -20962,10 +21259,10 @@
         <v>12</v>
       </c>
       <c r="C1111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1111" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1112" spans="1:4">
@@ -20976,10 +21273,10 @@
         <v>12</v>
       </c>
       <c r="C1112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1112" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -20990,10 +21287,10 @@
         <v>12</v>
       </c>
       <c r="C1113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1113" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1114" spans="1:4">
@@ -21001,13 +21298,13 @@
         <v>4</v>
       </c>
       <c r="B1114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1114" t="s">
-        <v>769</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -21018,10 +21315,10 @@
         <v>13</v>
       </c>
       <c r="C1115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1115" t="s">
-        <v>207</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -21032,10 +21329,10 @@
         <v>13</v>
       </c>
       <c r="C1116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1116" t="s">
-        <v>770</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1117" spans="1:4">
@@ -21046,10 +21343,10 @@
         <v>13</v>
       </c>
       <c r="C1117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1117" t="s">
-        <v>345</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1118" spans="1:4">
@@ -21060,10 +21357,10 @@
         <v>13</v>
       </c>
       <c r="C1118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1118" t="s">
-        <v>134</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1119" spans="1:4">
@@ -21071,13 +21368,13 @@
         <v>4</v>
       </c>
       <c r="B1119">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1119" t="s">
-        <v>771</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1120" spans="1:4">
@@ -21088,10 +21385,10 @@
         <v>14</v>
       </c>
       <c r="C1120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1120" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1121" spans="1:4">
@@ -21102,10 +21399,10 @@
         <v>14</v>
       </c>
       <c r="C1121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1121" t="s">
-        <v>220</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -21116,10 +21413,10 @@
         <v>14</v>
       </c>
       <c r="C1122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1122" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -21130,10 +21427,10 @@
         <v>14</v>
       </c>
       <c r="C1123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1123" t="s">
-        <v>98</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -21141,13 +21438,13 @@
         <v>4</v>
       </c>
       <c r="B1124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1124" t="s">
-        <v>773</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
@@ -21158,10 +21455,10 @@
         <v>15</v>
       </c>
       <c r="C1125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1125" t="s">
-        <v>98</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1126" spans="1:4">
@@ -21172,10 +21469,10 @@
         <v>15</v>
       </c>
       <c r="C1126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1126" t="s">
-        <v>724</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1127" spans="1:4">
@@ -21186,10 +21483,10 @@
         <v>15</v>
       </c>
       <c r="C1127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1127" t="s">
-        <v>14</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -21200,10 +21497,10 @@
         <v>15</v>
       </c>
       <c r="C1128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1128" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -21214,10 +21511,10 @@
         <v>15</v>
       </c>
       <c r="C1129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1129" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -21228,10 +21525,10 @@
         <v>15</v>
       </c>
       <c r="C1130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1130" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -21239,13 +21536,13 @@
         <v>4</v>
       </c>
       <c r="B1131">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1131" t="s">
-        <v>776</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1132" spans="1:4">
@@ -21256,10 +21553,10 @@
         <v>16</v>
       </c>
       <c r="C1132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1132" t="s">
-        <v>585</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1133" spans="1:4">
@@ -21270,10 +21567,10 @@
         <v>16</v>
       </c>
       <c r="C1133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1133" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
@@ -21284,10 +21581,10 @@
         <v>16</v>
       </c>
       <c r="C1134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1134" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1135" spans="1:4">
@@ -21298,10 +21595,10 @@
         <v>16</v>
       </c>
       <c r="C1135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1135" t="s">
-        <v>14</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -21312,10 +21609,10 @@
         <v>16</v>
       </c>
       <c r="C1136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1136" t="s">
-        <v>777</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -21326,10 +21623,10 @@
         <v>16</v>
       </c>
       <c r="C1137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1137" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1138" spans="1:4">
@@ -21340,10 +21637,10 @@
         <v>16</v>
       </c>
       <c r="C1138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1138" t="s">
-        <v>111</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1139" spans="1:4">
@@ -21354,10 +21651,10 @@
         <v>16</v>
       </c>
       <c r="C1139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1139" t="s">
-        <v>778</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1140" spans="1:4">
@@ -21368,10 +21665,10 @@
         <v>16</v>
       </c>
       <c r="C1140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1140" t="s">
-        <v>24</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1141" spans="1:4">
@@ -21382,10 +21679,10 @@
         <v>16</v>
       </c>
       <c r="C1141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1141" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -21393,13 +21690,13 @@
         <v>4</v>
       </c>
       <c r="B1142">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1142">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1142" t="s">
-        <v>780</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1143" spans="1:4">
@@ -21410,10 +21707,10 @@
         <v>17</v>
       </c>
       <c r="C1143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1143" t="s">
-        <v>111</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1144" spans="1:4">
@@ -21424,10 +21721,10 @@
         <v>17</v>
       </c>
       <c r="C1144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1144" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -21438,10 +21735,10 @@
         <v>17</v>
       </c>
       <c r="C1145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1145" t="s">
-        <v>782</v>
+        <v>516</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -21452,10 +21749,10 @@
         <v>17</v>
       </c>
       <c r="C1146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1146" t="s">
-        <v>516</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
@@ -21466,10 +21763,10 @@
         <v>17</v>
       </c>
       <c r="C1147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1147" t="s">
-        <v>98</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1148" spans="1:4">
@@ -21480,10 +21777,10 @@
         <v>17</v>
       </c>
       <c r="C1148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1148" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1149" spans="1:4">
@@ -21491,13 +21788,13 @@
         <v>4</v>
       </c>
       <c r="B1149">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1149">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1149" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1150" spans="1:4">
@@ -21508,10 +21805,10 @@
         <v>18</v>
       </c>
       <c r="C1150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1150" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
@@ -21522,10 +21819,10 @@
         <v>18</v>
       </c>
       <c r="C1151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1151" t="s">
-        <v>786</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
@@ -21536,10 +21833,10 @@
         <v>18</v>
       </c>
       <c r="C1152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1152" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1153" spans="1:4">
@@ -21550,10 +21847,10 @@
         <v>18</v>
       </c>
       <c r="C1153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1153" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
@@ -21564,10 +21861,10 @@
         <v>18</v>
       </c>
       <c r="C1154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1154" t="s">
-        <v>111</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1155" spans="1:4">
@@ -21578,10 +21875,10 @@
         <v>18</v>
       </c>
       <c r="C1155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1155" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
@@ -21592,10 +21889,10 @@
         <v>18</v>
       </c>
       <c r="C1156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1156" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21603,13 +21900,13 @@
         <v>4</v>
       </c>
       <c r="B1157">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1157">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1157" t="s">
-        <v>789</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -21620,10 +21917,10 @@
         <v>19</v>
       </c>
       <c r="C1158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1158" t="s">
-        <v>585</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1159" spans="1:4">
@@ -21634,10 +21931,10 @@
         <v>19</v>
       </c>
       <c r="C1159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1159" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1160" spans="1:4">
@@ -21648,10 +21945,10 @@
         <v>19</v>
       </c>
       <c r="C1160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1160" t="s">
-        <v>30</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21662,10 +21959,10 @@
         <v>19</v>
       </c>
       <c r="C1161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1161" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -21673,13 +21970,13 @@
         <v>4</v>
       </c>
       <c r="B1162">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1162" t="s">
-        <v>791</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1163" spans="1:4">
@@ -21690,10 +21987,10 @@
         <v>20</v>
       </c>
       <c r="C1163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1163" t="s">
-        <v>220</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
@@ -21704,10 +22001,10 @@
         <v>20</v>
       </c>
       <c r="C1164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1164" t="s">
-        <v>792</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -21718,10 +22015,10 @@
         <v>20</v>
       </c>
       <c r="C1165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>194</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -21732,10 +22029,10 @@
         <v>20</v>
       </c>
       <c r="C1166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1166" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -21743,13 +22040,13 @@
         <v>4</v>
       </c>
       <c r="B1167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1167" t="s">
-        <v>794</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -21760,10 +22057,10 @@
         <v>21</v>
       </c>
       <c r="C1168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1168" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1169" spans="1:4">
@@ -21774,10 +22071,10 @@
         <v>21</v>
       </c>
       <c r="C1169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1169" t="s">
-        <v>728</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1170" spans="1:4">
@@ -21788,10 +22085,10 @@
         <v>21</v>
       </c>
       <c r="C1170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1170" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1171" spans="1:4">
@@ -21802,10 +22099,10 @@
         <v>21</v>
       </c>
       <c r="C1171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1171" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1172" spans="1:4">
@@ -21816,10 +22113,10 @@
         <v>21</v>
       </c>
       <c r="C1172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1172" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -21830,10 +22127,10 @@
         <v>21</v>
       </c>
       <c r="C1173">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1173" t="s">
-        <v>798</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -21844,10 +22141,10 @@
         <v>21</v>
       </c>
       <c r="C1174">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1174" t="s">
-        <v>75</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1175" spans="1:4">
@@ -21858,10 +22155,10 @@
         <v>21</v>
       </c>
       <c r="C1175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1175" t="s">
-        <v>578</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1176" spans="1:4">
@@ -21869,13 +22166,13 @@
         <v>4</v>
       </c>
       <c r="B1176">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1176">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1176" t="s">
-        <v>194</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -21886,10 +22183,10 @@
         <v>22</v>
       </c>
       <c r="C1177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1177" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1178" spans="1:4">
@@ -21900,10 +22197,10 @@
         <v>22</v>
       </c>
       <c r="C1178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1178" t="s">
-        <v>800</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -21914,10 +22211,10 @@
         <v>22</v>
       </c>
       <c r="C1179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1179" t="s">
-        <v>111</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -21928,10 +22225,10 @@
         <v>22</v>
       </c>
       <c r="C1180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1180" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1181" spans="1:4">
@@ -21942,10 +22239,10 @@
         <v>22</v>
       </c>
       <c r="C1181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1181" t="s">
-        <v>802</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1182" spans="1:4">
@@ -21956,10 +22253,10 @@
         <v>22</v>
       </c>
       <c r="C1182">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1182" t="s">
-        <v>30</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -21970,10 +22267,10 @@
         <v>22</v>
       </c>
       <c r="C1183">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1183" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1184" spans="1:4">
@@ -21981,13 +22278,13 @@
         <v>4</v>
       </c>
       <c r="B1184">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1184">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1184" t="s">
-        <v>803</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1185" spans="1:4">
@@ -21998,10 +22295,10 @@
         <v>23</v>
       </c>
       <c r="C1185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1185" t="s">
-        <v>27</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -22012,10 +22309,10 @@
         <v>23</v>
       </c>
       <c r="C1186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1186" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1187" spans="1:4">
@@ -22026,10 +22323,10 @@
         <v>23</v>
       </c>
       <c r="C1187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1187" t="s">
-        <v>805</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1188" spans="1:4">
@@ -22040,10 +22337,10 @@
         <v>23</v>
       </c>
       <c r="C1188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1188" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1189" spans="1:4">
@@ -22054,10 +22351,10 @@
         <v>23</v>
       </c>
       <c r="C1189">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1189" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -22065,13 +22362,13 @@
         <v>4</v>
       </c>
       <c r="B1190">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1190">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1190" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -22082,10 +22379,10 @@
         <v>24</v>
       </c>
       <c r="C1191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1191" t="s">
-        <v>111</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -22096,10 +22393,10 @@
         <v>24</v>
       </c>
       <c r="C1192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1192" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -22110,10 +22407,10 @@
         <v>24</v>
       </c>
       <c r="C1193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1193" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -22124,10 +22421,10 @@
         <v>24</v>
       </c>
       <c r="C1194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1194" t="s">
-        <v>808</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -22138,10 +22435,10 @@
         <v>24</v>
       </c>
       <c r="C1195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1195" t="s">
-        <v>165</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1196" spans="1:4">
@@ -22152,10 +22449,10 @@
         <v>24</v>
       </c>
       <c r="C1196">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1196" t="s">
-        <v>584</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1197" spans="1:4">
@@ -22166,10 +22463,10 @@
         <v>24</v>
       </c>
       <c r="C1197">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1197" t="s">
-        <v>219</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1198" spans="1:4">
@@ -22180,10 +22477,10 @@
         <v>24</v>
       </c>
       <c r="C1198">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1198" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1199" spans="1:4">
@@ -22191,13 +22488,13 @@
         <v>4</v>
       </c>
       <c r="B1199">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1199">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1199" t="s">
-        <v>810</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1200" spans="1:4">
@@ -22208,10 +22505,10 @@
         <v>25</v>
       </c>
       <c r="C1200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1200" t="s">
-        <v>297</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
@@ -22222,10 +22519,10 @@
         <v>25</v>
       </c>
       <c r="C1201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1201" t="s">
-        <v>811</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1202" spans="1:4">
@@ -22236,10 +22533,10 @@
         <v>25</v>
       </c>
       <c r="C1202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1202" t="s">
-        <v>329</v>
+        <v>701</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -22250,10 +22547,10 @@
         <v>25</v>
       </c>
       <c r="C1203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1203" t="s">
-        <v>701</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -22264,10 +22561,10 @@
         <v>25</v>
       </c>
       <c r="C1204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1204" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1205" spans="1:4">
@@ -22275,13 +22572,13 @@
         <v>4</v>
       </c>
       <c r="B1205">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1205" t="s">
-        <v>813</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1206" spans="1:4">
@@ -22292,10 +22589,10 @@
         <v>26</v>
       </c>
       <c r="C1206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1206" t="s">
-        <v>24</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1207" spans="1:4">
@@ -22306,10 +22603,10 @@
         <v>26</v>
       </c>
       <c r="C1207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1207" t="s">
-        <v>406</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1208" spans="1:4">
@@ -22320,10 +22617,10 @@
         <v>26</v>
       </c>
       <c r="C1208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1208" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1209" spans="1:4">
@@ -22334,10 +22631,10 @@
         <v>26</v>
       </c>
       <c r="C1209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1209" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1210" spans="1:4">
@@ -22348,10 +22645,10 @@
         <v>26</v>
       </c>
       <c r="C1210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1210" t="s">
-        <v>816</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1211" spans="1:4">
@@ -22359,13 +22656,13 @@
         <v>4</v>
       </c>
       <c r="B1211">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1211">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1211" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1212" spans="1:4">
@@ -22376,10 +22673,10 @@
         <v>27</v>
       </c>
       <c r="C1212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1212" t="s">
-        <v>111</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -22390,10 +22687,10 @@
         <v>27</v>
       </c>
       <c r="C1213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1213" t="s">
-        <v>817</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1214" spans="1:4">
@@ -22404,10 +22701,10 @@
         <v>27</v>
       </c>
       <c r="C1214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1214" t="s">
-        <v>102</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1215" spans="1:4">
@@ -22418,10 +22715,10 @@
         <v>27</v>
       </c>
       <c r="C1215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1215" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1216" spans="1:4">
@@ -22429,13 +22726,13 @@
         <v>4</v>
       </c>
       <c r="B1216">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1216">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1216" t="s">
-        <v>819</v>
+        <v>403</v>
       </c>
     </row>
     <row r="1217" spans="1:4">
@@ -22446,10 +22743,10 @@
         <v>28</v>
       </c>
       <c r="C1217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1217" t="s">
-        <v>403</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1218" spans="1:4">
@@ -22460,10 +22757,10 @@
         <v>28</v>
       </c>
       <c r="C1218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1218" t="s">
-        <v>763</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -22474,10 +22771,10 @@
         <v>28</v>
       </c>
       <c r="C1219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1220" spans="1:4">
@@ -22488,10 +22785,10 @@
         <v>28</v>
       </c>
       <c r="C1220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1220" t="s">
-        <v>736</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1221" spans="1:4">
@@ -22499,13 +22796,13 @@
         <v>4</v>
       </c>
       <c r="B1221">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1221" t="s">
-        <v>595</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1222" spans="1:4">
@@ -22516,10 +22813,10 @@
         <v>29</v>
       </c>
       <c r="C1222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1222" t="s">
-        <v>820</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -22530,10 +22827,10 @@
         <v>29</v>
       </c>
       <c r="C1223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1223" t="s">
-        <v>165</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1224" spans="1:4">
@@ -22544,10 +22841,10 @@
         <v>29</v>
       </c>
       <c r="C1224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1224" t="s">
-        <v>821</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1225" spans="1:4">
@@ -22558,10 +22855,10 @@
         <v>29</v>
       </c>
       <c r="C1225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1225" t="s">
-        <v>722</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1226" spans="1:4">
@@ -22572,10 +22869,10 @@
         <v>29</v>
       </c>
       <c r="C1226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1226" t="s">
-        <v>406</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -22586,10 +22883,10 @@
         <v>29</v>
       </c>
       <c r="C1227">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1227" t="s">
-        <v>133</v>
+        <v>560</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -22600,10 +22897,10 @@
         <v>29</v>
       </c>
       <c r="C1228">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1228" t="s">
-        <v>560</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1229" spans="1:4">
@@ -22614,10 +22911,10 @@
         <v>29</v>
       </c>
       <c r="C1229">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1229" t="s">
-        <v>822</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1230" spans="1:4">
@@ -22625,13 +22922,13 @@
         <v>4</v>
       </c>
       <c r="B1230">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1230">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1230" t="s">
-        <v>288</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1231" spans="1:4">
@@ -22642,10 +22939,10 @@
         <v>30</v>
       </c>
       <c r="C1231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1231" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1232" spans="1:4">
@@ -22656,10 +22953,10 @@
         <v>30</v>
       </c>
       <c r="C1232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1232" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1233" spans="1:4">
@@ -22670,10 +22967,10 @@
         <v>30</v>
       </c>
       <c r="C1233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1233" t="s">
-        <v>171</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1234" spans="1:4">
@@ -22681,13 +22978,13 @@
         <v>4</v>
       </c>
       <c r="B1234">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1234" t="s">
-        <v>624</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1235" spans="1:4">
@@ -22698,10 +22995,10 @@
         <v>31</v>
       </c>
       <c r="C1235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1235" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1236" spans="1:4">
@@ -22712,10 +23009,10 @@
         <v>31</v>
       </c>
       <c r="C1236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1236" t="s">
-        <v>303</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1237" spans="1:4">
@@ -22726,10 +23023,10 @@
         <v>31</v>
       </c>
       <c r="C1237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1237" t="s">
-        <v>680</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -22740,10 +23037,10 @@
         <v>31</v>
       </c>
       <c r="C1238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1238" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -22754,10 +23051,10 @@
         <v>31</v>
       </c>
       <c r="C1239">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1239" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1240" spans="1:4">
@@ -22768,10 +23065,10 @@
         <v>31</v>
       </c>
       <c r="C1240">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1240" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1241" spans="1:4">
@@ -22782,10 +23079,10 @@
         <v>31</v>
       </c>
       <c r="C1241">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1241" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1242" spans="1:4">
@@ -22796,10 +23093,10 @@
         <v>31</v>
       </c>
       <c r="C1242">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1242" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1243" spans="1:4">
@@ -22807,13 +23104,13 @@
         <v>4</v>
       </c>
       <c r="B1243">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1243">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1243" t="s">
-        <v>828</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -22824,10 +23121,10 @@
         <v>32</v>
       </c>
       <c r="C1244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1244" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
     </row>
     <row r="1245" spans="1:4">
@@ -22838,10 +23135,10 @@
         <v>32</v>
       </c>
       <c r="C1245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1245" t="s">
-        <v>394</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1246" spans="1:4">
@@ -22852,10 +23149,10 @@
         <v>32</v>
       </c>
       <c r="C1246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1246" t="s">
-        <v>829</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1247" spans="1:4">
@@ -22866,10 +23163,10 @@
         <v>32</v>
       </c>
       <c r="C1247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1247" t="s">
-        <v>362</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1248" spans="1:4">
@@ -22880,10 +23177,10 @@
         <v>32</v>
       </c>
       <c r="C1248">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1248" t="s">
-        <v>568</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1249" spans="1:4">
@@ -22894,10 +23191,10 @@
         <v>32</v>
       </c>
       <c r="C1249">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1249" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1250" spans="1:4">
@@ -22905,13 +23202,13 @@
         <v>4</v>
       </c>
       <c r="B1250">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1250">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1250" t="s">
-        <v>831</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1251" spans="1:4">
@@ -22922,10 +23219,10 @@
         <v>33</v>
       </c>
       <c r="C1251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1251" t="s">
-        <v>542</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1252" spans="1:4">
@@ -22936,10 +23233,10 @@
         <v>33</v>
       </c>
       <c r="C1252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1252" t="s">
-        <v>832</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1253" spans="1:4">
@@ -22950,10 +23247,10 @@
         <v>33</v>
       </c>
       <c r="C1253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1253" t="s">
-        <v>362</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1254" spans="1:4">
@@ -22964,10 +23261,10 @@
         <v>33</v>
       </c>
       <c r="C1254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1254" t="s">
-        <v>598</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -22978,10 +23275,10 @@
         <v>33</v>
       </c>
       <c r="C1255">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1255" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -22989,13 +23286,13 @@
         <v>4</v>
       </c>
       <c r="B1256">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1256">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1256" t="s">
-        <v>834</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1257" spans="1:4">
@@ -23006,10 +23303,10 @@
         <v>34</v>
       </c>
       <c r="C1257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1257" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -23020,10 +23317,10 @@
         <v>34</v>
       </c>
       <c r="C1258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1258" t="s">
-        <v>187</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1259" spans="1:4">
@@ -23034,10 +23331,10 @@
         <v>34</v>
       </c>
       <c r="C1259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1259" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1260" spans="1:4">
@@ -23048,10 +23345,10 @@
         <v>34</v>
       </c>
       <c r="C1260">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1260" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1261" spans="1:4">
@@ -23062,10 +23359,10 @@
         <v>34</v>
       </c>
       <c r="C1261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1261" t="s">
-        <v>836</v>
+        <v>405</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -23076,10 +23373,10 @@
         <v>34</v>
       </c>
       <c r="C1262">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1262" t="s">
-        <v>405</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1263" spans="1:4">
@@ -23090,10 +23387,10 @@
         <v>34</v>
       </c>
       <c r="C1263">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1263" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -23104,10 +23401,10 @@
         <v>34</v>
       </c>
       <c r="C1264">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1264" t="s">
-        <v>33</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1265" spans="1:4">
@@ -23118,10 +23415,10 @@
         <v>34</v>
       </c>
       <c r="C1265">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1265" t="s">
-        <v>837</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1266" spans="1:4">
@@ -23132,10 +23429,10 @@
         <v>34</v>
       </c>
       <c r="C1266">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1266" t="s">
-        <v>169</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1267" spans="1:4">
@@ -23146,10 +23443,10 @@
         <v>34</v>
       </c>
       <c r="C1267">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1267" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1268" spans="1:4">
@@ -23160,23 +23457,9 @@
         <v>34</v>
       </c>
       <c r="C1268">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1268" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:4">
-      <c r="A1269">
-        <v>4</v>
-      </c>
-      <c r="B1269">
-        <v>34</v>
-      </c>
-      <c r="C1269">
-        <v>13</v>
-      </c>
-      <c r="D1269" t="s">
         <v>456</v>
       </c>
     </row>

--- a/wordlist.xlsx
+++ b/wordlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1043">
   <si>
     <t>word</t>
   </si>
@@ -1816,9 +1816,6 @@
     <t>ariShTebhyaH</t>
   </si>
   <si>
-    <t>maitryaa</t>
-  </si>
-  <si>
     <t>aadiShu</t>
   </si>
   <si>
@@ -3053,6 +3050,99 @@
   </si>
   <si>
     <t>undertaken uncommenced both karma on-that by-concentration death-knowledge or-also from-portents</t>
+  </si>
+  <si>
+    <t>maitrya</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>m-p-loc;f-p-loc;n-p-loc</t>
+  </si>
+  <si>
+    <t>beginning with; et cetera; and so on; in-(friendship)-etc.</t>
+  </si>
+  <si>
+    <t>power;strength</t>
+  </si>
+  <si>
+    <t>in-friendship-etc. strengths</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>powers;strengths</t>
+  </si>
+  <si>
+    <t>n-p-loc;m-p-loc</t>
+  </si>
+  <si>
+    <t>in powers; in strengths</t>
+  </si>
+  <si>
+    <t>in-strengths elephant-strength-etc.</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>et cetera</t>
+  </si>
+  <si>
+    <t>n-s-voc;m-s-voc</t>
+  </si>
+  <si>
+    <t>hastin</t>
+  </si>
+  <si>
+    <t>lok</t>
+  </si>
+  <si>
+    <t>nyaasa</t>
+  </si>
+  <si>
+    <t>from application</t>
+  </si>
+  <si>
+    <t>advance;progress;manifest;cognition</t>
+  </si>
+  <si>
+    <t>sight;aspect;beholding;vision;light;splendour</t>
+  </si>
+  <si>
+    <t>nyas</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>suuc</t>
+  </si>
+  <si>
+    <t>dhaa</t>
+  </si>
+  <si>
+    <t>concealed;obstructed from view</t>
+  </si>
+  <si>
+    <t>vi;ava</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>vi;pra</t>
+  </si>
+  <si>
+    <t>kRRiSh</t>
+  </si>
+  <si>
+    <t>manifest-light from-application subtle-concealed-remote-knowledge</t>
   </si>
 </sst>
 </file>
@@ -3876,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K791" workbookViewId="0">
-      <selection activeCell="J369" sqref="J369"/>
+    <sheetView tabSelected="1" topLeftCell="C805" workbookViewId="0">
+      <selection activeCell="C826" sqref="C826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3898,13 +3988,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1" t="s">
         <v>869</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>870</v>
-      </c>
-      <c r="C1" t="s">
-        <v>871</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3913,25 +4003,25 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>841</v>
+      </c>
+      <c r="I1" t="s">
+        <v>843</v>
+      </c>
+      <c r="J1" t="s">
         <v>842</v>
       </c>
-      <c r="I1" t="s">
-        <v>844</v>
-      </c>
-      <c r="J1" t="s">
-        <v>843</v>
-      </c>
       <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3951,25 +4041,25 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3989,19 +4079,19 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
@@ -4030,13 +4120,13 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J4" t="s">
         <v>846</v>
-      </c>
-      <c r="J4" t="s">
-        <v>847</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -4059,25 +4149,25 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4097,22 +4187,22 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4132,19 +4222,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -4173,13 +4263,13 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -4202,22 +4292,22 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4237,19 +4327,19 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K10" t="s">
         <v>29</v>
@@ -4272,19 +4362,19 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K11" t="s">
         <v>31</v>
@@ -4307,19 +4397,19 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I12" t="s">
+        <v>853</v>
+      </c>
+      <c r="J12" t="s">
         <v>854</v>
-      </c>
-      <c r="J12" t="s">
-        <v>855</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
@@ -4348,13 +4438,13 @@
         <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I13" t="s">
+        <v>845</v>
+      </c>
+      <c r="J13" t="s">
         <v>846</v>
-      </c>
-      <c r="J13" t="s">
-        <v>847</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -4377,25 +4467,25 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K14" t="s">
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4421,13 +4511,13 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
@@ -4450,19 +4540,19 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
@@ -4485,25 +4575,25 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K17" t="s">
         <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4523,19 +4613,19 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K18" t="s">
         <v>52</v>
@@ -4558,19 +4648,19 @@
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G19" t="s">
         <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I19" t="s">
+        <v>857</v>
+      </c>
+      <c r="J19" t="s">
         <v>858</v>
-      </c>
-      <c r="J19" t="s">
-        <v>859</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -4599,13 +4689,13 @@
         <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I20" t="s">
+        <v>857</v>
+      </c>
+      <c r="J20" t="s">
         <v>858</v>
-      </c>
-      <c r="J20" t="s">
-        <v>859</v>
       </c>
       <c r="K20" t="s">
         <v>60</v>
@@ -4634,19 +4724,19 @@
         <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K21" t="s">
         <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4666,19 +4756,19 @@
         <v>65</v>
       </c>
       <c r="F22" t="s">
+        <v>839</v>
+      </c>
+      <c r="G22" t="s">
         <v>840</v>
       </c>
-      <c r="G22" t="s">
-        <v>841</v>
-      </c>
       <c r="H22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K22" t="s">
         <v>67</v>
@@ -4707,13 +4797,13 @@
         <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -4742,13 +4832,13 @@
         <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K24" t="s">
         <v>73</v>
@@ -4771,19 +4861,19 @@
         <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K25" t="s">
         <v>77</v>
@@ -4812,19 +4902,19 @@
         <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I26" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K26" t="s">
         <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4850,13 +4940,13 @@
         <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K27" t="s">
         <v>83</v>
@@ -4885,13 +4975,13 @@
         <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I28" t="s">
+        <v>857</v>
+      </c>
+      <c r="J28" t="s">
         <v>858</v>
-      </c>
-      <c r="J28" t="s">
-        <v>859</v>
       </c>
       <c r="K28" t="s">
         <v>88</v>
@@ -4920,13 +5010,13 @@
         <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I29" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K29" t="s">
         <v>90</v>
@@ -4949,25 +5039,25 @@
         <v>65</v>
       </c>
       <c r="F30" t="s">
+        <v>839</v>
+      </c>
+      <c r="G30" t="s">
         <v>840</v>
       </c>
-      <c r="G30" t="s">
-        <v>841</v>
-      </c>
       <c r="H30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K30" t="s">
         <v>67</v>
       </c>
       <c r="L30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4987,22 +5077,22 @@
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G31" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H31" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K31" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5022,22 +5112,22 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I32" t="s">
+        <v>845</v>
+      </c>
+      <c r="J32" t="s">
         <v>846</v>
       </c>
-      <c r="J32" t="s">
-        <v>847</v>
-      </c>
       <c r="K32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -5051,28 +5141,28 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -5089,25 +5179,25 @@
         <v>94</v>
       </c>
       <c r="E34" t="s">
+        <v>882</v>
+      </c>
+      <c r="F34" t="s">
         <v>883</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>887</v>
+      </c>
+      <c r="H34" t="s">
+        <v>872</v>
+      </c>
+      <c r="I34" t="s">
+        <v>850</v>
+      </c>
+      <c r="J34" t="s">
         <v>884</v>
       </c>
-      <c r="G34" t="s">
-        <v>888</v>
-      </c>
-      <c r="H34" t="s">
-        <v>873</v>
-      </c>
-      <c r="I34" t="s">
-        <v>851</v>
-      </c>
-      <c r="J34" t="s">
-        <v>885</v>
-      </c>
       <c r="K34" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -5127,25 +5217,25 @@
         <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G35" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H35" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I35" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J35" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K35" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L35" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -5165,22 +5255,22 @@
         <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -5197,25 +5287,25 @@
         <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H37" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I37" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J37" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K37" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5235,22 +5325,22 @@
         <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J38" t="s">
+        <v>894</v>
+      </c>
+      <c r="K38" t="s">
         <v>895</v>
-      </c>
-      <c r="K38" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5267,25 +5357,25 @@
         <v>99</v>
       </c>
       <c r="E39" t="s">
+        <v>897</v>
+      </c>
+      <c r="F39" t="s">
+        <v>936</v>
+      </c>
+      <c r="G39" t="s">
+        <v>899</v>
+      </c>
+      <c r="H39" t="s">
+        <v>872</v>
+      </c>
+      <c r="I39" t="s">
+        <v>850</v>
+      </c>
+      <c r="J39" t="s">
+        <v>849</v>
+      </c>
+      <c r="K39" t="s">
         <v>898</v>
-      </c>
-      <c r="F39" t="s">
-        <v>937</v>
-      </c>
-      <c r="G39" t="s">
-        <v>900</v>
-      </c>
-      <c r="H39" t="s">
-        <v>873</v>
-      </c>
-      <c r="I39" t="s">
-        <v>851</v>
-      </c>
-      <c r="J39" t="s">
-        <v>850</v>
-      </c>
-      <c r="K39" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5311,13 +5401,13 @@
         <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K40" t="s">
         <v>70</v>
@@ -5343,22 +5433,22 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H41" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J41" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K41" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L41" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5381,19 +5471,19 @@
         <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H42" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I42" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J42" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K42" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -5410,25 +5500,25 @@
         <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F43" t="s">
         <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H43" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J43" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K43" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -5448,19 +5538,19 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J44" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K44" t="s">
         <v>18</v>
@@ -5489,13 +5579,13 @@
         <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I45" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J45" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K45" t="s">
         <v>73</v>
@@ -5521,22 +5611,22 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J46" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5556,22 +5646,22 @@
         <v>106</v>
       </c>
       <c r="F47" t="s">
+        <v>936</v>
+      </c>
+      <c r="G47" t="s">
+        <v>908</v>
+      </c>
+      <c r="H47" t="s">
+        <v>872</v>
+      </c>
+      <c r="I47" t="s">
+        <v>844</v>
+      </c>
+      <c r="J47" t="s">
         <v>937</v>
       </c>
-      <c r="G47" t="s">
-        <v>909</v>
-      </c>
-      <c r="H47" t="s">
-        <v>873</v>
-      </c>
-      <c r="I47" t="s">
-        <v>845</v>
-      </c>
-      <c r="J47" t="s">
-        <v>938</v>
-      </c>
       <c r="K47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -5588,25 +5678,25 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
+        <v>909</v>
+      </c>
+      <c r="F48" t="s">
+        <v>911</v>
+      </c>
+      <c r="G48" t="s">
+        <v>912</v>
+      </c>
+      <c r="H48" t="s">
+        <v>872</v>
+      </c>
+      <c r="I48" t="s">
+        <v>844</v>
+      </c>
+      <c r="J48" t="s">
+        <v>849</v>
+      </c>
+      <c r="K48" t="s">
         <v>910</v>
-      </c>
-      <c r="F48" t="s">
-        <v>912</v>
-      </c>
-      <c r="G48" t="s">
-        <v>913</v>
-      </c>
-      <c r="H48" t="s">
-        <v>873</v>
-      </c>
-      <c r="I48" t="s">
-        <v>845</v>
-      </c>
-      <c r="J48" t="s">
-        <v>850</v>
-      </c>
-      <c r="K48" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -5626,19 +5716,19 @@
         <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G49" t="s">
         <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I49" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K49" t="s">
         <v>77</v>
@@ -5661,22 +5751,22 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
+        <v>915</v>
+      </c>
+      <c r="G50" t="s">
         <v>916</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>872</v>
+      </c>
+      <c r="I50" t="s">
+        <v>844</v>
+      </c>
+      <c r="J50" t="s">
+        <v>937</v>
+      </c>
+      <c r="K50" t="s">
         <v>917</v>
-      </c>
-      <c r="H50" t="s">
-        <v>873</v>
-      </c>
-      <c r="I50" t="s">
-        <v>845</v>
-      </c>
-      <c r="J50" t="s">
-        <v>938</v>
-      </c>
-      <c r="K50" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5693,28 +5783,28 @@
         <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F51" t="s">
         <v>66</v>
       </c>
       <c r="G51" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H51" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J51" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K51" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L51" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -5734,22 +5824,22 @@
         <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G52" t="s">
         <v>111</v>
       </c>
       <c r="H52" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I52" t="s">
+        <v>845</v>
+      </c>
+      <c r="J52" t="s">
         <v>846</v>
       </c>
-      <c r="J52" t="s">
-        <v>847</v>
-      </c>
       <c r="K52" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5775,13 +5865,13 @@
         <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J53" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K53" t="s">
         <v>23</v>
@@ -5804,25 +5894,25 @@
         <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G54" t="s">
         <v>112</v>
       </c>
       <c r="H54" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I54" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J54" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K54" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L54" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5839,25 +5929,25 @@
         <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F55" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G55" t="s">
         <v>265</v>
       </c>
       <c r="H55" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I55" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K55" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -5874,25 +5964,25 @@
         <v>114</v>
       </c>
       <c r="E56" t="s">
+        <v>929</v>
+      </c>
+      <c r="F56" t="s">
+        <v>936</v>
+      </c>
+      <c r="G56" t="s">
+        <v>933</v>
+      </c>
+      <c r="H56" t="s">
+        <v>872</v>
+      </c>
+      <c r="I56" t="s">
+        <v>844</v>
+      </c>
+      <c r="J56" t="s">
+        <v>849</v>
+      </c>
+      <c r="K56" t="s">
         <v>930</v>
-      </c>
-      <c r="F56" t="s">
-        <v>937</v>
-      </c>
-      <c r="G56" t="s">
-        <v>934</v>
-      </c>
-      <c r="H56" t="s">
-        <v>873</v>
-      </c>
-      <c r="I56" t="s">
-        <v>845</v>
-      </c>
-      <c r="J56" t="s">
-        <v>850</v>
-      </c>
-      <c r="K56" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -5912,22 +6002,22 @@
         <v>109</v>
       </c>
       <c r="F57" t="s">
+        <v>915</v>
+      </c>
+      <c r="G57" t="s">
         <v>916</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>872</v>
+      </c>
+      <c r="I57" t="s">
+        <v>844</v>
+      </c>
+      <c r="J57" t="s">
+        <v>849</v>
+      </c>
+      <c r="K57" t="s">
         <v>917</v>
-      </c>
-      <c r="H57" t="s">
-        <v>873</v>
-      </c>
-      <c r="I57" t="s">
-        <v>845</v>
-      </c>
-      <c r="J57" t="s">
-        <v>850</v>
-      </c>
-      <c r="K57" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -5941,31 +6031,31 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
+        <v>934</v>
+      </c>
+      <c r="E58" t="s">
+        <v>934</v>
+      </c>
+      <c r="F58" t="s">
+        <v>936</v>
+      </c>
+      <c r="G58" t="s">
+        <v>934</v>
+      </c>
+      <c r="H58" t="s">
+        <v>944</v>
+      </c>
+      <c r="I58" t="s">
         <v>935</v>
       </c>
-      <c r="E58" t="s">
-        <v>935</v>
-      </c>
-      <c r="F58" t="s">
-        <v>937</v>
-      </c>
-      <c r="G58" t="s">
-        <v>935</v>
-      </c>
-      <c r="H58" t="s">
-        <v>945</v>
-      </c>
-      <c r="I58" t="s">
-        <v>936</v>
-      </c>
       <c r="J58" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K58" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L58" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -5985,22 +6075,22 @@
         <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G59" t="s">
         <v>116</v>
       </c>
       <c r="H59" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I59" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J59" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K59" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -6020,22 +6110,22 @@
         <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G60" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H60" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I60" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J60" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K60" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6055,22 +6145,22 @@
         <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G61" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I61" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J61" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K61" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -6090,22 +6180,22 @@
         <v>119</v>
       </c>
       <c r="F62" t="s">
+        <v>950</v>
+      </c>
+      <c r="G62" t="s">
+        <v>952</v>
+      </c>
+      <c r="H62" t="s">
+        <v>872</v>
+      </c>
+      <c r="I62" t="s">
+        <v>845</v>
+      </c>
+      <c r="J62" t="s">
+        <v>940</v>
+      </c>
+      <c r="K62" t="s">
         <v>951</v>
-      </c>
-      <c r="G62" t="s">
-        <v>953</v>
-      </c>
-      <c r="H62" t="s">
-        <v>873</v>
-      </c>
-      <c r="I62" t="s">
-        <v>846</v>
-      </c>
-      <c r="J62" t="s">
-        <v>941</v>
-      </c>
-      <c r="K62" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -6122,25 +6212,25 @@
         <v>120</v>
       </c>
       <c r="E63" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F63" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G63" t="s">
         <v>120</v>
       </c>
       <c r="H63" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I63" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J63" t="s">
+        <v>957</v>
+      </c>
+      <c r="K63" t="s">
         <v>958</v>
-      </c>
-      <c r="K63" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6157,25 +6247,25 @@
         <v>121</v>
       </c>
       <c r="E64" t="s">
+        <v>960</v>
+      </c>
+      <c r="F64" t="s">
+        <v>936</v>
+      </c>
+      <c r="G64" t="s">
         <v>961</v>
       </c>
-      <c r="F64" t="s">
-        <v>937</v>
-      </c>
-      <c r="G64" t="s">
-        <v>962</v>
-      </c>
       <c r="H64" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I64" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J64" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K64" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6192,25 +6282,25 @@
         <v>122</v>
       </c>
       <c r="E65" t="s">
+        <v>962</v>
+      </c>
+      <c r="F65" t="s">
+        <v>936</v>
+      </c>
+      <c r="G65" t="s">
         <v>963</v>
       </c>
-      <c r="F65" t="s">
-        <v>937</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
+        <v>872</v>
+      </c>
+      <c r="I65" t="s">
+        <v>850</v>
+      </c>
+      <c r="J65" t="s">
+        <v>849</v>
+      </c>
+      <c r="K65" t="s">
         <v>964</v>
-      </c>
-      <c r="H65" t="s">
-        <v>873</v>
-      </c>
-      <c r="I65" t="s">
-        <v>851</v>
-      </c>
-      <c r="J65" t="s">
-        <v>850</v>
-      </c>
-      <c r="K65" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6230,22 +6320,22 @@
         <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G66" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H66" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J66" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K66" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6262,25 +6352,25 @@
         <v>124</v>
       </c>
       <c r="E67" t="s">
+        <v>968</v>
+      </c>
+      <c r="F67" t="s">
+        <v>936</v>
+      </c>
+      <c r="G67" t="s">
+        <v>902</v>
+      </c>
+      <c r="H67" t="s">
+        <v>872</v>
+      </c>
+      <c r="I67" t="s">
+        <v>857</v>
+      </c>
+      <c r="J67" t="s">
+        <v>967</v>
+      </c>
+      <c r="K67" t="s">
         <v>969</v>
-      </c>
-      <c r="F67" t="s">
-        <v>937</v>
-      </c>
-      <c r="G67" t="s">
-        <v>903</v>
-      </c>
-      <c r="H67" t="s">
-        <v>873</v>
-      </c>
-      <c r="I67" t="s">
-        <v>858</v>
-      </c>
-      <c r="J67" t="s">
-        <v>968</v>
-      </c>
-      <c r="K67" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -6300,25 +6390,25 @@
         <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G68" t="s">
         <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I68" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J68" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K68" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L68" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -6341,19 +6431,19 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H69" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I69" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J69" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K69" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -6373,22 +6463,22 @@
         <v>106</v>
       </c>
       <c r="F70" t="s">
+        <v>936</v>
+      </c>
+      <c r="G70" t="s">
+        <v>908</v>
+      </c>
+      <c r="H70" t="s">
+        <v>872</v>
+      </c>
+      <c r="I70" t="s">
+        <v>844</v>
+      </c>
+      <c r="J70" t="s">
         <v>937</v>
       </c>
-      <c r="G70" t="s">
-        <v>909</v>
-      </c>
-      <c r="H70" t="s">
-        <v>873</v>
-      </c>
-      <c r="I70" t="s">
-        <v>845</v>
-      </c>
-      <c r="J70" t="s">
-        <v>938</v>
-      </c>
       <c r="K70" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -6405,25 +6495,25 @@
         <v>127</v>
       </c>
       <c r="E71" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F71" t="s">
         <v>66</v>
       </c>
       <c r="G71" t="s">
+        <v>976</v>
+      </c>
+      <c r="H71" t="s">
+        <v>872</v>
+      </c>
+      <c r="I71" t="s">
+        <v>850</v>
+      </c>
+      <c r="J71" t="s">
+        <v>975</v>
+      </c>
+      <c r="K71" t="s">
         <v>977</v>
-      </c>
-      <c r="H71" t="s">
-        <v>873</v>
-      </c>
-      <c r="I71" t="s">
-        <v>851</v>
-      </c>
-      <c r="J71" t="s">
-        <v>976</v>
-      </c>
-      <c r="K71" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -6443,22 +6533,22 @@
         <v>128</v>
       </c>
       <c r="F72" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G72" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H72" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I72" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J72" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K72" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -6472,28 +6562,28 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
+        <v>980</v>
+      </c>
+      <c r="E73" t="s">
         <v>981</v>
-      </c>
-      <c r="E73" t="s">
-        <v>982</v>
       </c>
       <c r="F73" t="s">
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H73" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I73" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J73" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K73" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -6510,25 +6600,25 @@
         <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F74" t="s">
         <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H74" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I74" t="s">
+        <v>845</v>
+      </c>
+      <c r="J74" t="s">
         <v>846</v>
       </c>
-      <c r="J74" t="s">
-        <v>847</v>
-      </c>
       <c r="K74" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -6545,7 +6635,7 @@
         <v>130</v>
       </c>
       <c r="L75" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -16712,28 +16802,28 @@
         <v>596</v>
       </c>
       <c r="E801" t="s">
+        <v>986</v>
+      </c>
+      <c r="F801" t="s">
         <v>987</v>
       </c>
-      <c r="F801" t="s">
+      <c r="G801" t="s">
+        <v>989</v>
+      </c>
+      <c r="H801" t="s">
+        <v>872</v>
+      </c>
+      <c r="I801" t="s">
+        <v>850</v>
+      </c>
+      <c r="J801" t="s">
+        <v>884</v>
+      </c>
+      <c r="K801" t="s">
         <v>988</v>
       </c>
-      <c r="G801" t="s">
-        <v>990</v>
-      </c>
-      <c r="H801" t="s">
-        <v>873</v>
-      </c>
-      <c r="I801" t="s">
-        <v>851</v>
-      </c>
-      <c r="J801" t="s">
-        <v>885</v>
-      </c>
-      <c r="K801" t="s">
-        <v>989</v>
-      </c>
       <c r="L801" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="802" spans="1:12">
@@ -16750,25 +16840,25 @@
         <v>597</v>
       </c>
       <c r="E802" t="s">
+        <v>990</v>
+      </c>
+      <c r="F802" t="s">
+        <v>992</v>
+      </c>
+      <c r="G802" t="s">
+        <v>989</v>
+      </c>
+      <c r="H802" t="s">
+        <v>872</v>
+      </c>
+      <c r="I802" t="s">
+        <v>850</v>
+      </c>
+      <c r="J802" t="s">
+        <v>884</v>
+      </c>
+      <c r="K802" t="s">
         <v>991</v>
-      </c>
-      <c r="F802" t="s">
-        <v>993</v>
-      </c>
-      <c r="G802" t="s">
-        <v>990</v>
-      </c>
-      <c r="H802" t="s">
-        <v>873</v>
-      </c>
-      <c r="I802" t="s">
-        <v>851</v>
-      </c>
-      <c r="J802" t="s">
-        <v>885</v>
-      </c>
-      <c r="K802" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="803" spans="1:12">
@@ -16788,22 +16878,22 @@
         <v>194</v>
       </c>
       <c r="F803" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G803" t="s">
         <v>194</v>
       </c>
       <c r="H803" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I803" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J803" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K803" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="804" spans="1:12">
@@ -16820,25 +16910,25 @@
         <v>171</v>
       </c>
       <c r="E804" t="s">
+        <v>994</v>
+      </c>
+      <c r="F804" t="s">
+        <v>936</v>
+      </c>
+      <c r="G804" t="s">
         <v>995</v>
       </c>
-      <c r="F804" t="s">
-        <v>937</v>
-      </c>
-      <c r="G804" t="s">
+      <c r="H804" t="s">
+        <v>872</v>
+      </c>
+      <c r="I804" t="s">
+        <v>845</v>
+      </c>
+      <c r="J804" t="s">
+        <v>894</v>
+      </c>
+      <c r="K804" t="s">
         <v>996</v>
-      </c>
-      <c r="H804" t="s">
-        <v>873</v>
-      </c>
-      <c r="I804" t="s">
-        <v>846</v>
-      </c>
-      <c r="J804" t="s">
-        <v>895</v>
-      </c>
-      <c r="K804" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="805" spans="1:12">
@@ -16858,22 +16948,22 @@
         <v>111</v>
       </c>
       <c r="F805" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G805" t="s">
         <v>111</v>
       </c>
       <c r="H805" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I805" t="s">
+        <v>845</v>
+      </c>
+      <c r="J805" t="s">
         <v>846</v>
       </c>
-      <c r="J805" t="s">
-        <v>847</v>
-      </c>
       <c r="K805" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="806" spans="1:12">
@@ -16890,25 +16980,25 @@
         <v>572</v>
       </c>
       <c r="E806" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F806" t="s">
         <v>43</v>
       </c>
       <c r="G806" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H806" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I806" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J806" t="s">
+        <v>999</v>
+      </c>
+      <c r="K806" t="s">
         <v>1000</v>
-      </c>
-      <c r="K806" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="807" spans="1:12">
@@ -16928,22 +17018,22 @@
         <v>598</v>
       </c>
       <c r="F807" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G807" t="s">
         <v>1004</v>
       </c>
-      <c r="G807" t="s">
-        <v>1005</v>
-      </c>
       <c r="H807" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I807" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J807" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K807" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="808" spans="1:12">
@@ -16963,22 +17053,22 @@
         <v>96</v>
       </c>
       <c r="F808" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G808" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H808" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I808" t="s">
+        <v>845</v>
+      </c>
+      <c r="J808" t="s">
         <v>846</v>
       </c>
-      <c r="J808" t="s">
-        <v>847</v>
-      </c>
       <c r="K808" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="809" spans="1:12">
@@ -16995,25 +17085,25 @@
         <v>599</v>
       </c>
       <c r="E809" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F809" t="s">
         <v>59</v>
       </c>
       <c r="G809" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H809" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I809" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J809" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K809" t="s">
         <v>1007</v>
-      </c>
-      <c r="K809" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="810" spans="1:12">
@@ -17033,22 +17123,22 @@
         <v>169</v>
       </c>
       <c r="F810" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G810" t="s">
         <v>169</v>
       </c>
       <c r="H810" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I810" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J810" t="s">
+        <v>939</v>
+      </c>
+      <c r="K810" t="s">
         <v>1010</v>
-      </c>
-      <c r="J810" t="s">
-        <v>940</v>
-      </c>
-      <c r="K810" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="811" spans="1:12">
@@ -17062,7 +17152,31 @@
         <v>1</v>
       </c>
       <c r="D811" t="s">
-        <v>600</v>
+        <v>1012</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F811" t="s">
+        <v>936</v>
+      </c>
+      <c r="G811" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H811" t="s">
+        <v>872</v>
+      </c>
+      <c r="I811" t="s">
+        <v>845</v>
+      </c>
+      <c r="J811" t="s">
+        <v>940</v>
+      </c>
+      <c r="K811" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L811" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="812" spans="1:12">
@@ -17076,7 +17190,28 @@
         <v>2</v>
       </c>
       <c r="D812" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="E812" t="s">
+        <v>594</v>
+      </c>
+      <c r="F812" t="s">
+        <v>936</v>
+      </c>
+      <c r="G812" t="s">
+        <v>86</v>
+      </c>
+      <c r="H812" t="s">
+        <v>872</v>
+      </c>
+      <c r="I812" t="s">
+        <v>853</v>
+      </c>
+      <c r="J812" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K812" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="813" spans="1:12">
@@ -17090,7 +17225,28 @@
         <v>3</v>
       </c>
       <c r="D813" t="s">
-        <v>602</v>
+        <v>601</v>
+      </c>
+      <c r="E813" t="s">
+        <v>604</v>
+      </c>
+      <c r="F813" t="s">
+        <v>936</v>
+      </c>
+      <c r="G813" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H813" t="s">
+        <v>872</v>
+      </c>
+      <c r="I813" t="s">
+        <v>850</v>
+      </c>
+      <c r="J813" t="s">
+        <v>874</v>
+      </c>
+      <c r="K813" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="814" spans="1:12">
@@ -17104,7 +17260,31 @@
         <v>1</v>
       </c>
       <c r="D814" t="s">
-        <v>603</v>
+        <v>602</v>
+      </c>
+      <c r="E814" t="s">
+        <v>604</v>
+      </c>
+      <c r="F814" t="s">
+        <v>936</v>
+      </c>
+      <c r="G814" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H814" t="s">
+        <v>872</v>
+      </c>
+      <c r="I814" t="s">
+        <v>850</v>
+      </c>
+      <c r="J814" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K814" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L814" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="815" spans="1:12">
@@ -17118,7 +17298,28 @@
         <v>2</v>
       </c>
       <c r="D815" t="s">
-        <v>604</v>
+        <v>603</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F815" t="s">
+        <v>936</v>
+      </c>
+      <c r="G815" t="s">
+        <v>603</v>
+      </c>
+      <c r="H815" t="s">
+        <v>872</v>
+      </c>
+      <c r="I815" t="s">
+        <v>845</v>
+      </c>
+      <c r="J815" t="s">
+        <v>894</v>
+      </c>
+      <c r="K815" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="816" spans="1:12">
@@ -17132,10 +17333,31 @@
         <v>3</v>
       </c>
       <c r="D816" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="817" spans="1:4">
+        <v>604</v>
+      </c>
+      <c r="E816" t="s">
+        <v>604</v>
+      </c>
+      <c r="F816" t="s">
+        <v>936</v>
+      </c>
+      <c r="G816" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H816" t="s">
+        <v>872</v>
+      </c>
+      <c r="I816" t="s">
+        <v>850</v>
+      </c>
+      <c r="J816" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K816" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12">
       <c r="A817">
         <v>3</v>
       </c>
@@ -17146,10 +17368,31 @@
         <v>4</v>
       </c>
       <c r="D817" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="818" spans="1:4">
+        <v>605</v>
+      </c>
+      <c r="E817" t="s">
+        <v>594</v>
+      </c>
+      <c r="F817" t="s">
+        <v>936</v>
+      </c>
+      <c r="G817" t="s">
+        <v>86</v>
+      </c>
+      <c r="H817" t="s">
+        <v>872</v>
+      </c>
+      <c r="I817" t="s">
+        <v>853</v>
+      </c>
+      <c r="J817" t="s">
+        <v>874</v>
+      </c>
+      <c r="K817" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12">
       <c r="A818">
         <v>3</v>
       </c>
@@ -17160,10 +17403,34 @@
         <v>1</v>
       </c>
       <c r="D818" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="819" spans="1:4">
+        <v>606</v>
+      </c>
+      <c r="E818" t="s">
+        <v>606</v>
+      </c>
+      <c r="F818" t="s">
+        <v>62</v>
+      </c>
+      <c r="G818" t="s">
+        <v>17</v>
+      </c>
+      <c r="H818" t="s">
+        <v>872</v>
+      </c>
+      <c r="I818" t="s">
+        <v>851</v>
+      </c>
+      <c r="J818" t="s">
+        <v>936</v>
+      </c>
+      <c r="K818" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L818" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12">
       <c r="A819">
         <v>3</v>
       </c>
@@ -17174,10 +17441,31 @@
         <v>2</v>
       </c>
       <c r="D819" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="820" spans="1:4">
+        <v>607</v>
+      </c>
+      <c r="E819" t="s">
+        <v>607</v>
+      </c>
+      <c r="F819" t="s">
+        <v>86</v>
+      </c>
+      <c r="G819" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H819" t="s">
+        <v>872</v>
+      </c>
+      <c r="I819" t="s">
+        <v>844</v>
+      </c>
+      <c r="J819" t="s">
+        <v>937</v>
+      </c>
+      <c r="K819" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12">
       <c r="A820">
         <v>3</v>
       </c>
@@ -17188,10 +17476,31 @@
         <v>3</v>
       </c>
       <c r="D820" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="821" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F820" t="s">
+        <v>936</v>
+      </c>
+      <c r="G820" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H820" t="s">
+        <v>872</v>
+      </c>
+      <c r="I820" t="s">
+        <v>844</v>
+      </c>
+      <c r="J820" t="s">
+        <v>999</v>
+      </c>
+      <c r="K820" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12">
       <c r="A821">
         <v>3</v>
       </c>
@@ -17204,8 +17513,29 @@
       <c r="D821" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="822" spans="1:4">
+      <c r="E821" t="s">
+        <v>280</v>
+      </c>
+      <c r="F821" t="s">
+        <v>936</v>
+      </c>
+      <c r="G821" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H821" t="s">
+        <v>872</v>
+      </c>
+      <c r="I821" t="s">
+        <v>850</v>
+      </c>
+      <c r="J821" t="s">
+        <v>938</v>
+      </c>
+      <c r="K821" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12">
       <c r="A822">
         <v>3</v>
       </c>
@@ -17216,10 +17546,31 @@
         <v>5</v>
       </c>
       <c r="D822" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="823" spans="1:4">
+        <v>609</v>
+      </c>
+      <c r="E822" t="s">
+        <v>609</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G822" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H822" t="s">
+        <v>872</v>
+      </c>
+      <c r="I822" t="s">
+        <v>850</v>
+      </c>
+      <c r="J822" t="s">
+        <v>938</v>
+      </c>
+      <c r="K822" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12">
       <c r="A823">
         <v>3</v>
       </c>
@@ -17230,24 +17581,66 @@
         <v>6</v>
       </c>
       <c r="D823" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="824" spans="1:4">
+        <v>610</v>
+      </c>
+      <c r="E823" t="s">
+        <v>610</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G823" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H823" t="s">
+        <v>872</v>
+      </c>
+      <c r="I823" t="s">
+        <v>850</v>
+      </c>
+      <c r="J823" t="s">
+        <v>938</v>
+      </c>
+      <c r="K823" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12">
       <c r="A824">
         <v>3</v>
       </c>
       <c r="B824">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C824">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D824" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="825" spans="1:4">
+      <c r="E824" t="s">
+        <v>96</v>
+      </c>
+      <c r="F824" t="s">
+        <v>936</v>
+      </c>
+      <c r="G824" t="s">
+        <v>878</v>
+      </c>
+      <c r="H824" t="s">
+        <v>872</v>
+      </c>
+      <c r="I824" t="s">
+        <v>845</v>
+      </c>
+      <c r="J824" t="s">
+        <v>846</v>
+      </c>
+      <c r="K824" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12">
       <c r="A825">
         <v>3</v>
       </c>
@@ -17258,24 +17651,45 @@
         <v>1</v>
       </c>
       <c r="D825" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="826" spans="1:4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12">
       <c r="A826">
         <v>3</v>
       </c>
       <c r="B826">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C826">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D826" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="827" spans="1:4">
+      <c r="E826" t="s">
+        <v>96</v>
+      </c>
+      <c r="F826" t="s">
+        <v>936</v>
+      </c>
+      <c r="G826" t="s">
+        <v>878</v>
+      </c>
+      <c r="H826" t="s">
+        <v>872</v>
+      </c>
+      <c r="I826" t="s">
+        <v>845</v>
+      </c>
+      <c r="J826" t="s">
+        <v>846</v>
+      </c>
+      <c r="K826" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12">
       <c r="A827">
         <v>3</v>
       </c>
@@ -17286,10 +17700,10 @@
         <v>3</v>
       </c>
       <c r="D827" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="828" spans="1:4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12">
       <c r="A828">
         <v>3</v>
       </c>
@@ -17303,7 +17717,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:12">
       <c r="A829">
         <v>3</v>
       </c>
@@ -17314,10 +17728,10 @@
         <v>1</v>
       </c>
       <c r="D829" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="830" spans="1:4">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12">
       <c r="A830">
         <v>3</v>
       </c>
@@ -17328,10 +17742,10 @@
         <v>1</v>
       </c>
       <c r="D830" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="831" spans="1:4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12">
       <c r="A831">
         <v>3</v>
       </c>
@@ -17342,10 +17756,10 @@
         <v>3</v>
       </c>
       <c r="D831" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="832" spans="1:4">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12">
       <c r="A832">
         <v>3</v>
       </c>
@@ -17370,7 +17784,7 @@
         <v>1</v>
       </c>
       <c r="D833" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -17426,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="D837" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -17440,7 +17854,7 @@
         <v>2</v>
       </c>
       <c r="D838" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -17468,7 +17882,7 @@
         <v>4</v>
       </c>
       <c r="D840" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -17496,7 +17910,7 @@
         <v>1</v>
       </c>
       <c r="D842" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -17510,7 +17924,7 @@
         <v>2</v>
       </c>
       <c r="D843" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -17524,7 +17938,7 @@
         <v>3</v>
       </c>
       <c r="D844" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -17538,7 +17952,7 @@
         <v>4</v>
       </c>
       <c r="D845" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -17552,7 +17966,7 @@
         <v>5</v>
       </c>
       <c r="D846" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -17566,7 +17980,7 @@
         <v>1</v>
       </c>
       <c r="D847" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -17580,7 +17994,7 @@
         <v>2</v>
       </c>
       <c r="D848" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -17594,7 +18008,7 @@
         <v>3</v>
       </c>
       <c r="D849" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -17608,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="D850" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -17622,7 +18036,7 @@
         <v>2</v>
       </c>
       <c r="D851" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -17636,7 +18050,7 @@
         <v>3</v>
       </c>
       <c r="D852" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -17650,7 +18064,7 @@
         <v>4</v>
       </c>
       <c r="D853" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -17664,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="D854" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -17706,7 +18120,7 @@
         <v>1</v>
       </c>
       <c r="D857" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -17734,7 +18148,7 @@
         <v>3</v>
       </c>
       <c r="D859" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -17762,7 +18176,7 @@
         <v>2</v>
       </c>
       <c r="D861" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -17776,7 +18190,7 @@
         <v>3</v>
       </c>
       <c r="D862" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17790,7 +18204,7 @@
         <v>4</v>
       </c>
       <c r="D863" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -17818,7 +18232,7 @@
         <v>6</v>
       </c>
       <c r="D865" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -17832,7 +18246,7 @@
         <v>7</v>
       </c>
       <c r="D866" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -17846,7 +18260,7 @@
         <v>8</v>
       </c>
       <c r="D867" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -17944,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="D874" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -17958,7 +18372,7 @@
         <v>3</v>
       </c>
       <c r="D875" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -17972,7 +18386,7 @@
         <v>4</v>
       </c>
       <c r="D876" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -17986,7 +18400,7 @@
         <v>5</v>
       </c>
       <c r="D877" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -18000,7 +18414,7 @@
         <v>6</v>
       </c>
       <c r="D878" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -18014,7 +18428,7 @@
         <v>7</v>
       </c>
       <c r="D879" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -18028,7 +18442,7 @@
         <v>8</v>
       </c>
       <c r="D880" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -18056,7 +18470,7 @@
         <v>2</v>
       </c>
       <c r="D882" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -18070,7 +18484,7 @@
         <v>3</v>
       </c>
       <c r="D883" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -18084,7 +18498,7 @@
         <v>4</v>
       </c>
       <c r="D884" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -18098,7 +18512,7 @@
         <v>5</v>
       </c>
       <c r="D885" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -18112,7 +18526,7 @@
         <v>1</v>
       </c>
       <c r="D886" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -18126,7 +18540,7 @@
         <v>2</v>
       </c>
       <c r="D887" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -18140,7 +18554,7 @@
         <v>3</v>
       </c>
       <c r="D888" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -18154,7 +18568,7 @@
         <v>4</v>
       </c>
       <c r="D889" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -18168,7 +18582,7 @@
         <v>5</v>
       </c>
       <c r="D890" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -18224,7 +18638,7 @@
         <v>9</v>
       </c>
       <c r="D894" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -18238,7 +18652,7 @@
         <v>10</v>
       </c>
       <c r="D895" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -18252,7 +18666,7 @@
         <v>1</v>
       </c>
       <c r="D896" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -18280,7 +18694,7 @@
         <v>3</v>
       </c>
       <c r="D898" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -18294,7 +18708,7 @@
         <v>4</v>
       </c>
       <c r="D899" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -18308,7 +18722,7 @@
         <v>5</v>
       </c>
       <c r="D900" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -18322,7 +18736,7 @@
         <v>6</v>
       </c>
       <c r="D901" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -18336,7 +18750,7 @@
         <v>7</v>
       </c>
       <c r="D902" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -18350,7 +18764,7 @@
         <v>8</v>
       </c>
       <c r="D903" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -18378,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="D905" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -18406,7 +18820,7 @@
         <v>3</v>
       </c>
       <c r="D907" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -18420,7 +18834,7 @@
         <v>1</v>
       </c>
       <c r="D908" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -18434,7 +18848,7 @@
         <v>2</v>
       </c>
       <c r="D909" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -18448,7 +18862,7 @@
         <v>3</v>
       </c>
       <c r="D910" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -18476,7 +18890,7 @@
         <v>5</v>
       </c>
       <c r="D912" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -18490,7 +18904,7 @@
         <v>6</v>
       </c>
       <c r="D913" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -18518,7 +18932,7 @@
         <v>2</v>
       </c>
       <c r="D915" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -18532,7 +18946,7 @@
         <v>3</v>
       </c>
       <c r="D916" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -18560,7 +18974,7 @@
         <v>5</v>
       </c>
       <c r="D918" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -18574,7 +18988,7 @@
         <v>6</v>
       </c>
       <c r="D919" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -18588,7 +19002,7 @@
         <v>7</v>
       </c>
       <c r="D920" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -18616,7 +19030,7 @@
         <v>9</v>
       </c>
       <c r="D922" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -18630,7 +19044,7 @@
         <v>10</v>
       </c>
       <c r="D923" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -18644,7 +19058,7 @@
         <v>1</v>
       </c>
       <c r="D924" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -18658,7 +19072,7 @@
         <v>2</v>
       </c>
       <c r="D925" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="926" spans="1:4">
@@ -18700,7 +19114,7 @@
         <v>5</v>
       </c>
       <c r="D928" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -18742,7 +19156,7 @@
         <v>8</v>
       </c>
       <c r="D931" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -18756,7 +19170,7 @@
         <v>9</v>
       </c>
       <c r="D932" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -18770,7 +19184,7 @@
         <v>1</v>
       </c>
       <c r="D933" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -18826,7 +19240,7 @@
         <v>5</v>
       </c>
       <c r="D937" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -18840,7 +19254,7 @@
         <v>6</v>
       </c>
       <c r="D938" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -18882,7 +19296,7 @@
         <v>9</v>
       </c>
       <c r="D941" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="942" spans="1:4">
@@ -18910,7 +19324,7 @@
         <v>2</v>
       </c>
       <c r="D943" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -18938,7 +19352,7 @@
         <v>4</v>
       </c>
       <c r="D945" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -18966,7 +19380,7 @@
         <v>6</v>
       </c>
       <c r="D947" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -19050,7 +19464,7 @@
         <v>2</v>
       </c>
       <c r="D953" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -19064,7 +19478,7 @@
         <v>3</v>
       </c>
       <c r="D954" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -19078,7 +19492,7 @@
         <v>4</v>
       </c>
       <c r="D955" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -19092,7 +19506,7 @@
         <v>5</v>
       </c>
       <c r="D956" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -19120,7 +19534,7 @@
         <v>7</v>
       </c>
       <c r="D958" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -19190,7 +19604,7 @@
         <v>5</v>
       </c>
       <c r="D963" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -19204,7 +19618,7 @@
         <v>6</v>
       </c>
       <c r="D964" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -19246,7 +19660,7 @@
         <v>9</v>
       </c>
       <c r="D967" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -19274,7 +19688,7 @@
         <v>2</v>
       </c>
       <c r="D969" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -19288,7 +19702,7 @@
         <v>3</v>
       </c>
       <c r="D970" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -19302,7 +19716,7 @@
         <v>4</v>
       </c>
       <c r="D971" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -19316,7 +19730,7 @@
         <v>5</v>
       </c>
       <c r="D972" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -19330,7 +19744,7 @@
         <v>6</v>
       </c>
       <c r="D973" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -19344,7 +19758,7 @@
         <v>7</v>
       </c>
       <c r="D974" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -19400,7 +19814,7 @@
         <v>3</v>
       </c>
       <c r="D978" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -19414,7 +19828,7 @@
         <v>4</v>
       </c>
       <c r="D979" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -19428,7 +19842,7 @@
         <v>5</v>
       </c>
       <c r="D980" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -19456,7 +19870,7 @@
         <v>7</v>
       </c>
       <c r="D982" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -19470,7 +19884,7 @@
         <v>8</v>
       </c>
       <c r="D983" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -19498,7 +19912,7 @@
         <v>10</v>
       </c>
       <c r="D985" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -19540,7 +19954,7 @@
         <v>2</v>
       </c>
       <c r="D988" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -19568,7 +19982,7 @@
         <v>4</v>
       </c>
       <c r="D990" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -19582,7 +19996,7 @@
         <v>5</v>
       </c>
       <c r="D991" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -19624,7 +20038,7 @@
         <v>1</v>
       </c>
       <c r="D994" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -19638,7 +20052,7 @@
         <v>2</v>
       </c>
       <c r="D995" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -19652,7 +20066,7 @@
         <v>3</v>
       </c>
       <c r="D996" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -19666,7 +20080,7 @@
         <v>4</v>
       </c>
       <c r="D997" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -19680,7 +20094,7 @@
         <v>5</v>
       </c>
       <c r="D998" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -19694,7 +20108,7 @@
         <v>6</v>
       </c>
       <c r="D999" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -19708,7 +20122,7 @@
         <v>7</v>
       </c>
       <c r="D1000" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -19722,7 +20136,7 @@
         <v>8</v>
       </c>
       <c r="D1001" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -19764,7 +20178,7 @@
         <v>3</v>
       </c>
       <c r="D1004" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -19806,7 +20220,7 @@
         <v>6</v>
       </c>
       <c r="D1007" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -19848,7 +20262,7 @@
         <v>2</v>
       </c>
       <c r="D1010" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
@@ -19862,7 +20276,7 @@
         <v>3</v>
       </c>
       <c r="D1011" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
@@ -19876,7 +20290,7 @@
         <v>4</v>
       </c>
       <c r="D1012" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
@@ -19904,7 +20318,7 @@
         <v>6</v>
       </c>
       <c r="D1014" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -19932,7 +20346,7 @@
         <v>8</v>
       </c>
       <c r="D1016" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19946,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="D1017" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
@@ -19988,7 +20402,7 @@
         <v>4</v>
       </c>
       <c r="D1020" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -20016,7 +20430,7 @@
         <v>6</v>
       </c>
       <c r="D1022" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -20072,7 +20486,7 @@
         <v>10</v>
       </c>
       <c r="D1026" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -20114,7 +20528,7 @@
         <v>2</v>
       </c>
       <c r="D1029" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -20142,7 +20556,7 @@
         <v>4</v>
       </c>
       <c r="D1031" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -20198,7 +20612,7 @@
         <v>2</v>
       </c>
       <c r="D1035" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -20212,7 +20626,7 @@
         <v>3</v>
       </c>
       <c r="D1036" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -20254,7 +20668,7 @@
         <v>6</v>
       </c>
       <c r="D1039" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -20268,7 +20682,7 @@
         <v>7</v>
       </c>
       <c r="D1040" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -20296,7 +20710,7 @@
         <v>2</v>
       </c>
       <c r="D1042" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -20338,7 +20752,7 @@
         <v>5</v>
       </c>
       <c r="D1045" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -20352,7 +20766,7 @@
         <v>1</v>
       </c>
       <c r="D1046" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -20366,7 +20780,7 @@
         <v>2</v>
       </c>
       <c r="D1047" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -20380,7 +20794,7 @@
         <v>3</v>
       </c>
       <c r="D1048" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1049" spans="1:4">
@@ -20394,7 +20808,7 @@
         <v>4</v>
       </c>
       <c r="D1049" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
@@ -20408,7 +20822,7 @@
         <v>5</v>
       </c>
       <c r="D1050" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
@@ -20450,7 +20864,7 @@
         <v>8</v>
       </c>
       <c r="D1053" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1054" spans="1:4">
@@ -20464,7 +20878,7 @@
         <v>9</v>
       </c>
       <c r="D1054" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
@@ -20478,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="D1055" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
@@ -20492,7 +20906,7 @@
         <v>2</v>
       </c>
       <c r="D1056" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1057" spans="1:4">
@@ -20520,7 +20934,7 @@
         <v>4</v>
       </c>
       <c r="D1058" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -20534,7 +20948,7 @@
         <v>1</v>
       </c>
       <c r="D1059" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="1060" spans="1:4">
@@ -20548,7 +20962,7 @@
         <v>2</v>
       </c>
       <c r="D1060" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -20562,7 +20976,7 @@
         <v>3</v>
       </c>
       <c r="D1061" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
@@ -20590,7 +21004,7 @@
         <v>5</v>
       </c>
       <c r="D1063" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
@@ -20604,7 +21018,7 @@
         <v>6</v>
       </c>
       <c r="D1064" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1065" spans="1:4">
@@ -20646,7 +21060,7 @@
         <v>3</v>
       </c>
       <c r="D1067" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -20660,7 +21074,7 @@
         <v>4</v>
       </c>
       <c r="D1068" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -20688,7 +21102,7 @@
         <v>2</v>
       </c>
       <c r="D1070" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1071" spans="1:4">
@@ -20702,7 +21116,7 @@
         <v>3</v>
       </c>
       <c r="D1071" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -20716,7 +21130,7 @@
         <v>4</v>
       </c>
       <c r="D1072" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1073" spans="1:4">
@@ -20730,7 +21144,7 @@
         <v>5</v>
       </c>
       <c r="D1073" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -20800,7 +21214,7 @@
         <v>4</v>
       </c>
       <c r="D1078" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1079" spans="1:4">
@@ -20828,7 +21242,7 @@
         <v>6</v>
       </c>
       <c r="D1080" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -20842,7 +21256,7 @@
         <v>7</v>
       </c>
       <c r="D1081" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
@@ -20898,7 +21312,7 @@
         <v>4</v>
       </c>
       <c r="D1085" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1086" spans="1:4">
@@ -20926,7 +21340,7 @@
         <v>6</v>
       </c>
       <c r="D1087" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -20982,7 +21396,7 @@
         <v>10</v>
       </c>
       <c r="D1091" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -20996,7 +21410,7 @@
         <v>1</v>
       </c>
       <c r="D1092" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -21010,7 +21424,7 @@
         <v>2</v>
       </c>
       <c r="D1093" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -21038,7 +21452,7 @@
         <v>4</v>
       </c>
       <c r="D1095" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -21052,7 +21466,7 @@
         <v>5</v>
       </c>
       <c r="D1096" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1097" spans="1:4">
@@ -21066,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="D1097" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -21094,7 +21508,7 @@
         <v>3</v>
       </c>
       <c r="D1099" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1100" spans="1:4">
@@ -21108,7 +21522,7 @@
         <v>4</v>
       </c>
       <c r="D1100" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -21122,7 +21536,7 @@
         <v>5</v>
       </c>
       <c r="D1101" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -21136,7 +21550,7 @@
         <v>6</v>
       </c>
       <c r="D1102" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -21150,7 +21564,7 @@
         <v>7</v>
       </c>
       <c r="D1103" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -21234,7 +21648,7 @@
         <v>4</v>
       </c>
       <c r="D1109" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -21248,7 +21662,7 @@
         <v>5</v>
       </c>
       <c r="D1110" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -21262,7 +21676,7 @@
         <v>6</v>
       </c>
       <c r="D1111" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1112" spans="1:4">
@@ -21276,7 +21690,7 @@
         <v>7</v>
       </c>
       <c r="D1112" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -21290,7 +21704,7 @@
         <v>8</v>
       </c>
       <c r="D1113" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1114" spans="1:4">
@@ -21318,7 +21732,7 @@
         <v>2</v>
       </c>
       <c r="D1115" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -21360,7 +21774,7 @@
         <v>5</v>
       </c>
       <c r="D1118" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1119" spans="1:4">
@@ -21402,7 +21816,7 @@
         <v>3</v>
       </c>
       <c r="D1121" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -21430,7 +21844,7 @@
         <v>5</v>
       </c>
       <c r="D1123" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -21458,7 +21872,7 @@
         <v>2</v>
       </c>
       <c r="D1125" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1126" spans="1:4">
@@ -21486,7 +21900,7 @@
         <v>4</v>
       </c>
       <c r="D1127" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -21500,7 +21914,7 @@
         <v>5</v>
       </c>
       <c r="D1128" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -21514,7 +21928,7 @@
         <v>6</v>
       </c>
       <c r="D1129" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -21528,7 +21942,7 @@
         <v>7</v>
       </c>
       <c r="D1130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -21598,7 +22012,7 @@
         <v>5</v>
       </c>
       <c r="D1135" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -21640,7 +22054,7 @@
         <v>8</v>
       </c>
       <c r="D1138" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1139" spans="1:4">
@@ -21668,7 +22082,7 @@
         <v>10</v>
       </c>
       <c r="D1140" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1141" spans="1:4">
@@ -21682,7 +22096,7 @@
         <v>11</v>
       </c>
       <c r="D1141" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -21710,7 +22124,7 @@
         <v>2</v>
       </c>
       <c r="D1143" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1144" spans="1:4">
@@ -21724,7 +22138,7 @@
         <v>3</v>
       </c>
       <c r="D1144" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -21766,7 +22180,7 @@
         <v>6</v>
       </c>
       <c r="D1147" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1148" spans="1:4">
@@ -21780,7 +22194,7 @@
         <v>7</v>
       </c>
       <c r="D1148" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1149" spans="1:4">
@@ -21794,7 +22208,7 @@
         <v>1</v>
       </c>
       <c r="D1149" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1150" spans="1:4">
@@ -21808,7 +22222,7 @@
         <v>2</v>
       </c>
       <c r="D1150" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
@@ -21864,7 +22278,7 @@
         <v>6</v>
       </c>
       <c r="D1154" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1155" spans="1:4">
@@ -21878,7 +22292,7 @@
         <v>7</v>
       </c>
       <c r="D1155" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
@@ -21892,7 +22306,7 @@
         <v>8</v>
       </c>
       <c r="D1156" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -21948,7 +22362,7 @@
         <v>4</v>
       </c>
       <c r="D1160" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -21962,7 +22376,7 @@
         <v>5</v>
       </c>
       <c r="D1161" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -21990,7 +22404,7 @@
         <v>2</v>
       </c>
       <c r="D1163" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
@@ -22018,7 +22432,7 @@
         <v>4</v>
       </c>
       <c r="D1165" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -22032,7 +22446,7 @@
         <v>5</v>
       </c>
       <c r="D1166" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -22060,7 +22474,7 @@
         <v>2</v>
       </c>
       <c r="D1168" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1169" spans="1:4">
@@ -22074,7 +22488,7 @@
         <v>3</v>
       </c>
       <c r="D1169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1170" spans="1:4">
@@ -22088,7 +22502,7 @@
         <v>4</v>
       </c>
       <c r="D1170" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1171" spans="1:4">
@@ -22102,7 +22516,7 @@
         <v>5</v>
       </c>
       <c r="D1171" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1172" spans="1:4">
@@ -22116,7 +22530,7 @@
         <v>6</v>
       </c>
       <c r="D1172" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -22172,7 +22586,7 @@
         <v>1</v>
       </c>
       <c r="D1176" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -22186,7 +22600,7 @@
         <v>2</v>
       </c>
       <c r="D1177" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1178" spans="1:4">
@@ -22214,7 +22628,7 @@
         <v>4</v>
       </c>
       <c r="D1179" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -22228,7 +22642,7 @@
         <v>5</v>
       </c>
       <c r="D1180" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1181" spans="1:4">
@@ -22256,7 +22670,7 @@
         <v>7</v>
       </c>
       <c r="D1182" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
@@ -22270,7 +22684,7 @@
         <v>8</v>
       </c>
       <c r="D1183" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1184" spans="1:4">
@@ -22298,7 +22712,7 @@
         <v>2</v>
       </c>
       <c r="D1185" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -22312,7 +22726,7 @@
         <v>3</v>
       </c>
       <c r="D1186" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1187" spans="1:4">
@@ -22382,7 +22796,7 @@
         <v>2</v>
       </c>
       <c r="D1191" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -22396,7 +22810,7 @@
         <v>3</v>
       </c>
       <c r="D1192" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -22410,7 +22824,7 @@
         <v>4</v>
       </c>
       <c r="D1193" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -22466,7 +22880,7 @@
         <v>8</v>
       </c>
       <c r="D1197" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1198" spans="1:4">
@@ -22480,7 +22894,7 @@
         <v>9</v>
       </c>
       <c r="D1198" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1199" spans="1:4">
@@ -22508,7 +22922,7 @@
         <v>2</v>
       </c>
       <c r="D1200" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
@@ -22536,7 +22950,7 @@
         <v>4</v>
       </c>
       <c r="D1202" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -22550,7 +22964,7 @@
         <v>5</v>
       </c>
       <c r="D1203" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
@@ -22564,7 +22978,7 @@
         <v>6</v>
       </c>
       <c r="D1204" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1205" spans="1:4">
@@ -22606,7 +23020,7 @@
         <v>3</v>
       </c>
       <c r="D1207" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1208" spans="1:4">
@@ -22620,7 +23034,7 @@
         <v>4</v>
       </c>
       <c r="D1208" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1209" spans="1:4">
@@ -22634,7 +23048,7 @@
         <v>5</v>
       </c>
       <c r="D1209" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1210" spans="1:4">
@@ -22676,7 +23090,7 @@
         <v>2</v>
       </c>
       <c r="D1212" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -22704,7 +23118,7 @@
         <v>4</v>
       </c>
       <c r="D1214" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1215" spans="1:4">
@@ -22718,7 +23132,7 @@
         <v>5</v>
       </c>
       <c r="D1215" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1216" spans="1:4">
@@ -22746,7 +23160,7 @@
         <v>2</v>
       </c>
       <c r="D1217" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1218" spans="1:4">
@@ -22774,7 +23188,7 @@
         <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1220" spans="1:4">
@@ -22802,7 +23216,7 @@
         <v>1</v>
       </c>
       <c r="D1221" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1222" spans="1:4">
@@ -22830,7 +23244,7 @@
         <v>3</v>
       </c>
       <c r="D1223" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1224" spans="1:4">
@@ -22844,7 +23258,7 @@
         <v>4</v>
       </c>
       <c r="D1224" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1225" spans="1:4">
@@ -22900,7 +23314,7 @@
         <v>8</v>
       </c>
       <c r="D1228" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1229" spans="1:4">
@@ -22970,7 +23384,7 @@
         <v>4</v>
       </c>
       <c r="D1233" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1234" spans="1:4">
@@ -23012,7 +23426,7 @@
         <v>3</v>
       </c>
       <c r="D1236" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1237" spans="1:4">
@@ -23026,7 +23440,7 @@
         <v>4</v>
       </c>
       <c r="D1237" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -23040,7 +23454,7 @@
         <v>5</v>
       </c>
       <c r="D1238" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -23054,7 +23468,7 @@
         <v>6</v>
       </c>
       <c r="D1239" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1240" spans="1:4">
@@ -23068,7 +23482,7 @@
         <v>7</v>
       </c>
       <c r="D1240" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1241" spans="1:4">
@@ -23082,7 +23496,7 @@
         <v>8</v>
       </c>
       <c r="D1241" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1242" spans="1:4">
@@ -23096,7 +23510,7 @@
         <v>9</v>
       </c>
       <c r="D1242" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1243" spans="1:4">
@@ -23138,7 +23552,7 @@
         <v>3</v>
       </c>
       <c r="D1245" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1246" spans="1:4">
@@ -23180,7 +23594,7 @@
         <v>6</v>
       </c>
       <c r="D1248" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1249" spans="1:4">
@@ -23194,7 +23608,7 @@
         <v>7</v>
       </c>
       <c r="D1249" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1250" spans="1:4">
@@ -23222,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="D1251" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1252" spans="1:4">
@@ -23264,7 +23678,7 @@
         <v>5</v>
       </c>
       <c r="D1254" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -23278,7 +23692,7 @@
         <v>6</v>
       </c>
       <c r="D1255" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -23320,7 +23734,7 @@
         <v>3</v>
       </c>
       <c r="D1258" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1259" spans="1:4">
@@ -23334,7 +23748,7 @@
         <v>4</v>
       </c>
       <c r="D1259" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1260" spans="1:4">
@@ -23348,7 +23762,7 @@
         <v>5</v>
       </c>
       <c r="D1260" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1261" spans="1:4">
@@ -23404,7 +23818,7 @@
         <v>9</v>
       </c>
       <c r="D1264" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1265" spans="1:4">
@@ -23432,7 +23846,7 @@
         <v>11</v>
       </c>
       <c r="D1266" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1267" spans="1:4">
@@ -23446,7 +23860,7 @@
         <v>12</v>
       </c>
       <c r="D1267" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1268" spans="1:4">

--- a/wordlist.xlsx
+++ b/wordlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1074">
   <si>
     <t>word</t>
   </si>
@@ -3230,6 +3230,12 @@
   </si>
   <si>
     <t>reasoning-deliberation-happiness-egoism-form from-following : with-consciousness</t>
+  </si>
+  <si>
+    <t>cessation</t>
+  </si>
+  <si>
+    <t>ram</t>
   </si>
 </sst>
 </file>
@@ -4053,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7182,6 +7188,27 @@
       <c r="D88" t="s">
         <v>141</v>
       </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H88" t="s">
+        <v>871</v>
+      </c>
+      <c r="I88" t="s">
+        <v>843</v>
+      </c>
+      <c r="J88" t="s">
+        <v>936</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
@@ -7195,6 +7222,27 @@
       </c>
       <c r="D89" t="s">
         <v>102</v>
+      </c>
+      <c r="E89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s">
+        <v>839</v>
+      </c>
+      <c r="H89" t="s">
+        <v>871</v>
+      </c>
+      <c r="I89" t="s">
+        <v>843</v>
+      </c>
+      <c r="J89" t="s">
+        <v>936</v>
+      </c>
+      <c r="K89" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="90" spans="1:12">

--- a/wordlist.xlsx
+++ b/wordlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1081">
   <si>
     <t>word</t>
   </si>
@@ -3236,6 +3236,27 @@
   </si>
   <si>
     <t>ram</t>
+  </si>
+  <si>
+    <t>world; earth</t>
+  </si>
+  <si>
+    <t>m;n;f</t>
+  </si>
+  <si>
+    <t>suurya</t>
+  </si>
+  <si>
+    <t>m-s-loc;n-s-loc;n-d-nom;n-d-acc;n-d-voc;f-s-voc;f-d-nom;f-d-acc;f-d-voc</t>
+  </si>
+  <si>
+    <t>on the sun</t>
+  </si>
+  <si>
+    <t>suur</t>
+  </si>
+  <si>
+    <t>earth knowledge on-sun by-concentration</t>
   </si>
 </sst>
 </file>
@@ -4059,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="C806" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C829" sqref="A829:XFD829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18021,7 +18042,7 @@
         <v>3</v>
       </c>
       <c r="B824">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C824">
         <v>8</v>
@@ -18064,6 +18085,30 @@
       <c r="D825" t="s">
         <v>610</v>
       </c>
+      <c r="E825" t="s">
+        <v>610</v>
+      </c>
+      <c r="F825" t="s">
+        <v>935</v>
+      </c>
+      <c r="G825" t="s">
+        <v>901</v>
+      </c>
+      <c r="H825" t="s">
+        <v>871</v>
+      </c>
+      <c r="I825" t="s">
+        <v>849</v>
+      </c>
+      <c r="J825" t="s">
+        <v>937</v>
+      </c>
+      <c r="K825" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L825" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="826" spans="1:12">
       <c r="A826">
@@ -18113,6 +18158,27 @@
       <c r="D827" t="s">
         <v>611</v>
       </c>
+      <c r="E827" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F827" t="s">
+        <v>935</v>
+      </c>
+      <c r="G827" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H827" t="s">
+        <v>871</v>
+      </c>
+      <c r="I827" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J827" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K827" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="828" spans="1:12">
       <c r="A828">
@@ -18126,6 +18192,27 @@
       </c>
       <c r="D828" t="s">
         <v>571</v>
+      </c>
+      <c r="E828" t="s">
+        <v>995</v>
+      </c>
+      <c r="F828" t="s">
+        <v>43</v>
+      </c>
+      <c r="G828" t="s">
+        <v>998</v>
+      </c>
+      <c r="H828" t="s">
+        <v>871</v>
+      </c>
+      <c r="I828" t="s">
+        <v>849</v>
+      </c>
+      <c r="J828" t="s">
+        <v>996</v>
+      </c>
+      <c r="K828" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="829" spans="1:12">

--- a/wordlist.xlsx
+++ b/wordlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1086">
   <si>
     <t>word</t>
   </si>
@@ -3257,6 +3257,21 @@
   </si>
   <si>
     <t>earth knowledge on-sun by-concentration</t>
+  </si>
+  <si>
+    <t>on-moon star-formation knowledge</t>
+  </si>
+  <si>
+    <t>chandra</t>
+  </si>
+  <si>
+    <t>on the moon</t>
+  </si>
+  <si>
+    <t>chand</t>
+  </si>
+  <si>
+    <t>star</t>
   </si>
 </sst>
 </file>
@@ -4080,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C806" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C829" sqref="A829:XFD829"/>
+    <sheetView tabSelected="1" topLeftCell="I806" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K831" sqref="K831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18228,6 +18243,30 @@
       <c r="D829" t="s">
         <v>612</v>
       </c>
+      <c r="E829" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F829" t="s">
+        <v>935</v>
+      </c>
+      <c r="G829" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H829" t="s">
+        <v>871</v>
+      </c>
+      <c r="I829" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J829" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K829" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L829" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="830" spans="1:12">
       <c r="A830">
@@ -18242,6 +18281,9 @@
       <c r="D830" t="s">
         <v>613</v>
       </c>
+      <c r="K830" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="831" spans="1:12">
       <c r="A831">
@@ -18269,6 +18311,27 @@
       </c>
       <c r="D832" t="s">
         <v>93</v>
+      </c>
+      <c r="E832" t="s">
+        <v>96</v>
+      </c>
+      <c r="F832" t="s">
+        <v>935</v>
+      </c>
+      <c r="G832" t="s">
+        <v>877</v>
+      </c>
+      <c r="H832" t="s">
+        <v>871</v>
+      </c>
+      <c r="I832" t="s">
+        <v>844</v>
+      </c>
+      <c r="J832" t="s">
+        <v>845</v>
+      </c>
+      <c r="K832" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="833" spans="1:4">
